--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,17 +16,370 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>一、资源模块 - Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+  <si>
+    <t xml:space="preserve">一、Resource - 资源模块 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lfTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层功能类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lfTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层功能类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Layout - 层资源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutId</t>
+  </si>
+  <si>
+    <t>layoutId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeLayoutId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardBoothArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层标识</t>
+  </si>
+  <si>
+    <t>层标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层编号</t>
+  </si>
+  <si>
+    <t>层名称</t>
+  </si>
+  <si>
+    <t>层级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属上级层标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面积</t>
+  </si>
+  <si>
+    <t>该层摊位标准面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该层层次位置信息</t>
+  </si>
+  <si>
+    <t>3.Booth - 摊位资源基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothId</t>
+  </si>
+  <si>
+    <t>boothId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractId</t>
+  </si>
+  <si>
+    <t>contractId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标识</t>
+  </si>
+  <si>
+    <t>摊位编号</t>
+  </si>
+  <si>
+    <t>摊位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属层标识</t>
+  </si>
+  <si>
+    <t>摊位实际面积</t>
+  </si>
+  <si>
+    <t>摊位层次位置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同标识</t>
+  </si>
+  <si>
+    <t>所属合同标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源状态标识</t>
+  </si>
+  <si>
+    <t>资源状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源状态名称</t>
+  </si>
+  <si>
+    <t>5.Booth_Standard_Fee - 摊位标准收费款项信息（针对层）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsfItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsfItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgfpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准费用款项标识</t>
+  </si>
+  <si>
+    <t>摊位标准费用款项名称</t>
+  </si>
+  <si>
+    <t>摊位标准费用</t>
+  </si>
+  <si>
+    <t>标准费用收取方式</t>
+  </si>
+  <si>
+    <t>1.Layout_Function - 层功能类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Resource_Status - 资源(含摊位)状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brf</t>
+  </si>
+  <si>
+    <t>实际收费款项标识</t>
+  </si>
+  <si>
+    <t>标准费用款项标识</t>
+  </si>
+  <si>
+    <t>实际收取的费用</t>
+  </si>
+  <si>
+    <t>最近一次编辑用户时间</t>
+  </si>
+  <si>
+    <t>6.Booth_Real_Fee - 摊位实际收费款项信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Resource - (非摊位)资源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceId</t>
+  </si>
+  <si>
+    <t>resourceCode</t>
+  </si>
+  <si>
+    <t>resourceName</t>
+  </si>
+  <si>
+    <t>resourceTypeId</t>
+  </si>
+  <si>
+    <t>resourceTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardFee</t>
+  </si>
+  <si>
+    <t>realFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源标识</t>
+  </si>
+  <si>
+    <t>资源编号</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源类型标识</t>
+  </si>
+  <si>
+    <t>资源层次位置信息</t>
+  </si>
+  <si>
+    <t>标准费用</t>
+  </si>
+  <si>
+    <t>实际收取费用</t>
+  </si>
+  <si>
+    <t>8.ResourceType - 资源类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceTypeName</t>
+  </si>
+  <si>
+    <t>资源类型名称</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +390,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -57,12 +434,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -71,9 +463,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -82,6 +477,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,26 +788,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="A186" sqref="A186:XFD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="44" s="3" customFormat="1"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1"/>
+    <row r="10" spans="1:10" s="8" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1"/>
+    <row r="25" spans="1:2" s="8" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="1" customFormat="1"/>
+    <row r="40" spans="1:2" s="8" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="1" customFormat="1"/>
+    <row r="44" spans="1:2" s="8" customFormat="1">
+      <c r="A44" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1"/>
+    <row r="54" spans="1:2" s="8" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1"/>
+    <row r="64" spans="1:2" s="8" customFormat="1">
+      <c r="A64" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="3" customFormat="1"/>
+    <row r="79" spans="1:2" s="8" customFormat="1">
+      <c r="A79" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="4" customFormat="1"/>
+    <row r="186" s="4" customFormat="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -791,7 +791,7 @@
   <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:XFD186"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="277">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>telephone</t>
+  </si>
+  <si>
+    <t>telephone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,6 +513,9 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +823,215 @@
   </si>
   <si>
     <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、Merchant - 用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Department - 部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeDeptId</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.User - 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Role - 角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Authority - 权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+  </si>
+  <si>
+    <t>authorityName</t>
+  </si>
+  <si>
+    <t>authorityModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Authority_Module - 权限模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.User_Status - 用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.Rl_User_Role - 用户、角色映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Rl_Role_Authority - 角色、权限映射关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1866,7 +2081,7 @@
         <v>103</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1874,7 +2089,7 @@
         <v>104</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1882,7 +2097,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1890,7 +2105,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1898,7 +2113,7 @@
         <v>107</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1906,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1914,212 +2129,212 @@
         <v>109</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -2127,24 +2342,24 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="6" customFormat="1"/>
     <row r="126" spans="1:2" s="5" customFormat="1">
       <c r="A126" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2152,29 +2367,29 @@
         <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="6" customFormat="1"/>
     <row r="130" spans="1:2" s="5" customFormat="1">
       <c r="A130" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2182,52 +2397,52 @@
         <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
@@ -2235,7 +2450,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>13</v>
@@ -2243,7 +2458,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>17</v>
@@ -2252,28 +2467,28 @@
     <row r="141" spans="1:2" s="6" customFormat="1"/>
     <row r="142" spans="1:2" s="5" customFormat="1">
       <c r="A142" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
@@ -2281,7 +2496,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>13</v>
@@ -2289,7 +2504,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
@@ -2298,103 +2513,103 @@
     <row r="148" spans="1:2" s="6" customFormat="1"/>
     <row r="149" spans="1:2" s="5" customFormat="1">
       <c r="A149" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="6" customFormat="1"/>
     <row r="153" spans="1:2" s="5" customFormat="1">
       <c r="A153" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="6" customFormat="1"/>
     <row r="157" spans="1:2" s="5" customFormat="1">
       <c r="A157" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="6" customFormat="1"/>
     <row r="161" spans="1:2" s="5" customFormat="1">
       <c r="A161" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="6" customFormat="1"/>
     <row r="165" spans="1:2" s="5" customFormat="1">
       <c r="A165" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2402,57 +2617,415 @@
         <v>103</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="2" customFormat="1"/>
+    <row r="175" spans="1:2" s="6" customFormat="1"/>
+    <row r="176" spans="1:2" s="8" customFormat="1">
+      <c r="A176" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="5" customFormat="1">
+      <c r="A177" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="213" s="2" customFormat="1"/>
+    <row r="184" spans="1:2">
+      <c r="A184" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="6" customFormat="1"/>
+    <row r="187" spans="1:2" s="5" customFormat="1">
+      <c r="A187" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" s="6" customFormat="1"/>
+    <row r="200" spans="1:2" s="5" customFormat="1">
+      <c r="A200" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="6" customFormat="1"/>
+    <row r="208" spans="1:2" s="5" customFormat="1">
+      <c r="A208" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" s="6" customFormat="1"/>
+    <row r="213" spans="1:2" s="5" customFormat="1">
+      <c r="A213" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" s="6" customFormat="1"/>
+    <row r="217" spans="1:2" s="5" customFormat="1">
+      <c r="A217" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" s="6" customFormat="1"/>
+    <row r="221" spans="1:2" s="5" customFormat="1">
+      <c r="A221" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" s="6" customFormat="1"/>
+    <row r="225" spans="1:2" s="5" customFormat="1">
+      <c r="A225" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="51">
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
     <mergeCell ref="A160:XFD160"/>
     <mergeCell ref="A161:XFD161"/>
     <mergeCell ref="A164:XFD164"/>
     <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
     <mergeCell ref="A149:XFD149"/>
     <mergeCell ref="A152:XFD152"/>
     <mergeCell ref="A153:XFD153"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,6 +1035,82 @@
   </si>
   <si>
     <t>角色标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、Assistant - 营业员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Assistant - 营业员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantCertCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员证件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Assistant_Daily_Patrol_Record - 针对营业员的日常巡查记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259:XFD259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2609,7 +2688,7 @@
         <v>215</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2622,10 +2701,10 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2633,7 +2712,7 @@
         <v>137</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2641,7 +2720,7 @@
         <v>138</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2649,7 +2728,7 @@
         <v>139</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2657,51 +2736,51 @@
         <v>185</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2" s="6" customFormat="1"/>
     <row r="176" spans="1:2" s="8" customFormat="1">
       <c r="A176" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="5" customFormat="1">
       <c r="A177" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2709,7 +2788,7 @@
         <v>137</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2717,7 +2796,7 @@
         <v>138</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2725,7 +2804,7 @@
         <v>139</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2733,53 +2812,53 @@
         <v>185</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="6" customFormat="1"/>
     <row r="187" spans="1:2" s="5" customFormat="1">
       <c r="A187" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2787,23 +2866,23 @@
         <v>110</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2811,7 +2890,7 @@
         <v>137</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2819,37 +2898,37 @@
         <v>11</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="6" customFormat="1"/>
     <row r="200" spans="1:2" s="5" customFormat="1">
       <c r="A200" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2857,7 +2936,7 @@
         <v>136</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2865,7 +2944,7 @@
         <v>138</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2873,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2881,65 +2960,65 @@
         <v>15</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="6" customFormat="1"/>
     <row r="208" spans="1:2" s="5" customFormat="1">
       <c r="A208" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="6" customFormat="1"/>
     <row r="213" spans="1:2" s="5" customFormat="1">
       <c r="A213" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216" spans="1:2" s="6" customFormat="1"/>
     <row r="217" spans="1:2" s="5" customFormat="1">
       <c r="A217" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2947,7 +3026,7 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2955,57 +3034,256 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="6" customFormat="1"/>
     <row r="221" spans="1:2" s="5" customFormat="1">
       <c r="A221" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="6" customFormat="1"/>
     <row r="225" spans="1:2" s="5" customFormat="1">
       <c r="A225" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
+    <row r="230" spans="1:2" s="6" customFormat="1"/>
+    <row r="231" spans="1:2" s="8" customFormat="1">
+      <c r="A231" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" s="5" customFormat="1">
+      <c r="A232" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" s="6" customFormat="1"/>
+    <row r="248" spans="1:2" s="5" customFormat="1">
+      <c r="A248" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" s="2" customFormat="1"/>
+    <row r="258" spans="1:1" s="6" customFormat="1"/>
+    <row r="259" spans="1:1" s="7" customFormat="1">
+      <c r="A259" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="58">
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
     <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
     <mergeCell ref="A216:XFD216"/>
     <mergeCell ref="A217:XFD217"/>
     <mergeCell ref="A220:XFD220"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -1038,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三、Assistant - 营业员模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.Assistant - 营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,7 +1106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四、</t>
+    <t>四、Assistant - 营业员模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
       <selection activeCell="A259" sqref="A259:XFD259"/>
     </sheetView>
   </sheetViews>
@@ -3085,28 +3085,28 @@
     <row r="230" spans="1:2" s="6" customFormat="1"/>
     <row r="231" spans="1:2" s="8" customFormat="1">
       <c r="A231" s="8" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="5" customFormat="1">
       <c r="A232" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3114,15 +3114,15 @@
         <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>241</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>111</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>107</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3154,23 +3154,23 @@
         <v>103</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3208,7 +3208,7 @@
     <row r="247" spans="1:2" s="6" customFormat="1"/>
     <row r="248" spans="1:2" s="5" customFormat="1">
       <c r="A248" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3221,10 +3221,10 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="251" spans="1:2">

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259:XFD259"/>
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3276,54 +3276,16 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A89:XFD89"/>
     <mergeCell ref="A125:XFD125"/>
     <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A64:XFD64"/>
     <mergeCell ref="A63:XFD63"/>
     <mergeCell ref="A78:XFD78"/>
@@ -3334,6 +3296,44 @@
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A53:XFD53"/>
     <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="348">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,8 +1110,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>五、Sale - 销售模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+  </si>
+  <si>
+    <t>voucherTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>customerTel</t>
+  </si>
+  <si>
+    <t>customerAddress</t>
+  </si>
+  <si>
+    <t>totalCapital</t>
+  </si>
+  <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>realCapital</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>payStatusOfDeposit</t>
+  </si>
+  <si>
+    <t>payStatusOfTotalCapital</t>
+  </si>
+  <si>
+    <t>saleTime</t>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boothId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者电话</t>
+  </si>
+  <si>
+    <t>消费者地址</t>
+  </si>
+  <si>
+    <t>商品金额总计</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>定金金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全款缴纳状态</t>
+  </si>
+  <si>
+    <t>销售记录发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Sale_Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>2.Pay_Status - 缴纳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型名称</t>
+  </si>
+  <si>
+    <t>typeId</t>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Voucher_Type - 单据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Sale_Record_Detail - 销售记录详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录标识</t>
+  </si>
+  <si>
+    <t>所属单据号</t>
+  </si>
+  <si>
+    <t>能定位到某商品的编号</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -1218,14 +1393,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1527,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1547,15 +1722,15 @@
       <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1606,9 +1781,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1"/>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:10" s="5" customFormat="1"/>
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1716,9 +1891,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1"/>
-    <row r="25" spans="1:2" s="5" customFormat="1">
-      <c r="A25" s="5" t="s">
+    <row r="24" spans="1:2" s="7" customFormat="1"/>
+    <row r="25" spans="1:2" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1826,9 +2001,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1"/>
-    <row r="40" spans="1:2" s="5" customFormat="1">
-      <c r="A40" s="5" t="s">
+    <row r="39" spans="1:2" s="7" customFormat="1"/>
+    <row r="40" spans="1:2" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1848,9 +2023,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1"/>
-    <row r="44" spans="1:2" s="5" customFormat="1">
-      <c r="A44" s="5" t="s">
+    <row r="43" spans="1:2" s="7" customFormat="1"/>
+    <row r="44" spans="1:2" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1918,9 +2093,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="6" customFormat="1"/>
-    <row r="54" spans="1:2" s="5" customFormat="1">
-      <c r="A54" s="5" t="s">
+    <row r="53" spans="1:2" s="7" customFormat="1"/>
+    <row r="54" spans="1:2" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1988,9 +2163,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1"/>
-    <row r="64" spans="1:2" s="5" customFormat="1">
-      <c r="A64" s="5" t="s">
+    <row r="63" spans="1:2" s="7" customFormat="1"/>
+    <row r="64" spans="1:2" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2098,9 +2273,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="7" customFormat="1"/>
-    <row r="79" spans="1:2" s="5" customFormat="1">
-      <c r="A79" s="5" t="s">
+    <row r="78" spans="1:2" s="5" customFormat="1"/>
+    <row r="79" spans="1:2" s="6" customFormat="1">
+      <c r="A79" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2150,8 +2325,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" s="6" customFormat="1">
+      <c r="A89" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2435,9 +2610,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="6" customFormat="1"/>
-    <row r="126" spans="1:2" s="5" customFormat="1">
-      <c r="A126" s="5" t="s">
+    <row r="125" spans="1:2" s="7" customFormat="1"/>
+    <row r="126" spans="1:2" s="6" customFormat="1">
+      <c r="A126" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2457,9 +2632,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="6" customFormat="1"/>
-    <row r="130" spans="1:2" s="5" customFormat="1">
-      <c r="A130" s="5" t="s">
+    <row r="129" spans="1:2" s="7" customFormat="1"/>
+    <row r="130" spans="1:2" s="6" customFormat="1">
+      <c r="A130" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2543,9 +2718,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="6" customFormat="1"/>
-    <row r="142" spans="1:2" s="5" customFormat="1">
-      <c r="A142" s="5" t="s">
+    <row r="141" spans="1:2" s="7" customFormat="1"/>
+    <row r="142" spans="1:2" s="6" customFormat="1">
+      <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2589,9 +2764,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="6" customFormat="1"/>
-    <row r="149" spans="1:2" s="5" customFormat="1">
-      <c r="A149" s="5" t="s">
+    <row r="148" spans="1:2" s="7" customFormat="1"/>
+    <row r="149" spans="1:2" s="6" customFormat="1">
+      <c r="A149" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2611,9 +2786,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="6" customFormat="1"/>
-    <row r="153" spans="1:2" s="5" customFormat="1">
-      <c r="A153" s="5" t="s">
+    <row r="152" spans="1:2" s="7" customFormat="1"/>
+    <row r="153" spans="1:2" s="6" customFormat="1">
+      <c r="A153" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2633,9 +2808,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="6" customFormat="1"/>
-    <row r="157" spans="1:2" s="5" customFormat="1">
-      <c r="A157" s="5" t="s">
+    <row r="156" spans="1:2" s="7" customFormat="1"/>
+    <row r="157" spans="1:2" s="6" customFormat="1">
+      <c r="A157" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2655,9 +2830,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="6" customFormat="1"/>
-    <row r="161" spans="1:2" s="5" customFormat="1">
-      <c r="A161" s="5" t="s">
+    <row r="160" spans="1:2" s="7" customFormat="1"/>
+    <row r="161" spans="1:2" s="6" customFormat="1">
+      <c r="A161" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2677,9 +2852,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="6" customFormat="1"/>
-    <row r="165" spans="1:2" s="5" customFormat="1">
-      <c r="A165" s="5" t="s">
+    <row r="164" spans="1:2" s="7" customFormat="1"/>
+    <row r="165" spans="1:2" s="6" customFormat="1">
+      <c r="A165" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2740,14 +2915,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="6" customFormat="1"/>
+    <row r="175" spans="1:2" s="7" customFormat="1"/>
     <row r="176" spans="1:2" s="8" customFormat="1">
       <c r="A176" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="5" customFormat="1">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:2" s="6" customFormat="1">
+      <c r="A177" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2815,9 +2990,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="6" customFormat="1"/>
-    <row r="187" spans="1:2" s="5" customFormat="1">
-      <c r="A187" s="5" t="s">
+    <row r="186" spans="1:2" s="7" customFormat="1"/>
+    <row r="187" spans="1:2" s="6" customFormat="1">
+      <c r="A187" s="6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2909,9 +3084,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1"/>
-    <row r="200" spans="1:2" s="5" customFormat="1">
-      <c r="A200" s="5" t="s">
+    <row r="199" spans="1:2" s="7" customFormat="1"/>
+    <row r="200" spans="1:2" s="6" customFormat="1">
+      <c r="A200" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2963,9 +3138,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1"/>
-    <row r="208" spans="1:2" s="5" customFormat="1">
-      <c r="A208" s="5" t="s">
+    <row r="207" spans="1:2" s="7" customFormat="1"/>
+    <row r="208" spans="1:2" s="6" customFormat="1">
+      <c r="A208" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2993,9 +3168,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="6" customFormat="1"/>
-    <row r="213" spans="1:2" s="5" customFormat="1">
-      <c r="A213" s="5" t="s">
+    <row r="212" spans="1:2" s="7" customFormat="1"/>
+    <row r="213" spans="1:2" s="6" customFormat="1">
+      <c r="A213" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3015,9 +3190,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="6" customFormat="1"/>
-    <row r="217" spans="1:2" s="5" customFormat="1">
-      <c r="A217" s="5" t="s">
+    <row r="216" spans="1:2" s="7" customFormat="1"/>
+    <row r="217" spans="1:2" s="6" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3037,9 +3212,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="6" customFormat="1"/>
-    <row r="221" spans="1:2" s="5" customFormat="1">
-      <c r="A221" s="5" t="s">
+    <row r="220" spans="1:2" s="7" customFormat="1"/>
+    <row r="221" spans="1:2" s="6" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3059,9 +3234,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="6" customFormat="1"/>
-    <row r="225" spans="1:2" s="5" customFormat="1">
-      <c r="A225" s="5" t="s">
+    <row r="224" spans="1:2" s="7" customFormat="1"/>
+    <row r="225" spans="1:2" s="6" customFormat="1">
+      <c r="A225" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3082,14 +3257,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="6" customFormat="1"/>
+    <row r="230" spans="1:2" s="7" customFormat="1"/>
     <row r="231" spans="1:2" s="8" customFormat="1">
       <c r="A231" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="5" customFormat="1">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:2" s="6" customFormat="1">
+      <c r="A232" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3205,9 +3380,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="6" customFormat="1"/>
-    <row r="248" spans="1:2" s="5" customFormat="1">
-      <c r="A248" s="5" t="s">
+    <row r="247" spans="1:2" s="7" customFormat="1"/>
+    <row r="248" spans="1:2" s="6" customFormat="1">
+      <c r="A248" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3267,15 +3442,284 @@
         <v>223</v>
       </c>
     </row>
-    <row r="257" spans="1:1" s="2" customFormat="1"/>
-    <row r="258" spans="1:1" s="6" customFormat="1"/>
-    <row r="259" spans="1:1" s="7" customFormat="1">
-      <c r="A259" s="7" t="s">
+    <row r="257" spans="1:2" s="2" customFormat="1"/>
+    <row r="258" spans="1:2" s="7" customFormat="1"/>
+    <row r="259" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="8" t="s">
         <v>296</v>
       </c>
     </row>
+    <row r="260" spans="1:2" s="6" customFormat="1">
+      <c r="A260" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="7" customFormat="1"/>
+    <row r="280" spans="1:2" s="6" customFormat="1">
+      <c r="A280" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" s="7" customFormat="1"/>
+    <row r="284" spans="1:2" s="6" customFormat="1">
+      <c r="A284" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" s="7" customFormat="1"/>
+    <row r="288" spans="1:2" s="6" customFormat="1">
+      <c r="A288" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="65">
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A10:XFD10"/>
@@ -3326,6 +3770,7 @@
     <mergeCell ref="A220:XFD220"/>
     <mergeCell ref="A221:XFD221"/>
     <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
     <mergeCell ref="A248:XFD248"/>
     <mergeCell ref="A258:XFD258"/>
     <mergeCell ref="A259:XFD259"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="401">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1287,6 +1287,210 @@
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>六、Message - 消息模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendUserCode</t>
+  </si>
+  <si>
+    <t>messageText</t>
+  </si>
+  <si>
+    <t>messageStatusId</t>
+  </si>
+  <si>
+    <t>消息标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Message_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectBaseFee</t>
+  </si>
+  <si>
+    <t>projectBeginDate</t>
+  </si>
+  <si>
+    <t>projectEndDate</t>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectStatusId</t>
+  </si>
+  <si>
+    <t>项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起方或组织方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目门槛费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Project - 项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.Rl_Project_Merchant - 项目商户关联信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Project_Status - 项目状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七、Project - 项目模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八、System - 系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.System_Parameter - 系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1394,18 +1598,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1702,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J296"/>
+  <dimension ref="A1:J345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343:XFD345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1713,24 +1917,24 @@
     <col min="1" max="2" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1781,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1"/>
+    <row r="9" spans="1:10" s="9" customFormat="1"/>
     <row r="10" spans="1:10" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>19</v>
@@ -1891,7 +2095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="7" customFormat="1"/>
+    <row r="24" spans="1:2" s="5" customFormat="1"/>
     <row r="25" spans="1:2" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>38</v>
@@ -2001,7 +2205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="7" customFormat="1"/>
+    <row r="39" spans="1:2" s="5" customFormat="1"/>
     <row r="40" spans="1:2" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>74</v>
@@ -2023,7 +2227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="7" customFormat="1"/>
+    <row r="43" spans="1:2" s="5" customFormat="1"/>
     <row r="44" spans="1:2" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>64</v>
@@ -2093,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="7" customFormat="1"/>
+    <row r="53" spans="1:2" s="5" customFormat="1"/>
     <row r="54" spans="1:2" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>80</v>
@@ -2163,7 +2367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="7" customFormat="1"/>
+    <row r="63" spans="1:2" s="5" customFormat="1"/>
     <row r="64" spans="1:2" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>81</v>
@@ -2273,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="5" customFormat="1"/>
+    <row r="78" spans="1:2" s="9" customFormat="1"/>
     <row r="79" spans="1:2" s="6" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>97</v>
@@ -2320,8 +2524,8 @@
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1"/>
-    <row r="88" spans="1:2" s="8" customFormat="1">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:2" s="7" customFormat="1">
+      <c r="A88" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2610,7 +2814,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="7" customFormat="1"/>
+    <row r="125" spans="1:2" s="5" customFormat="1"/>
     <row r="126" spans="1:2" s="6" customFormat="1">
       <c r="A126" s="6" t="s">
         <v>174</v>
@@ -2632,7 +2836,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="7" customFormat="1"/>
+    <row r="129" spans="1:2" s="5" customFormat="1"/>
     <row r="130" spans="1:2" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
         <v>178</v>
@@ -2718,7 +2922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="7" customFormat="1"/>
+    <row r="141" spans="1:2" s="5" customFormat="1"/>
     <row r="142" spans="1:2" s="6" customFormat="1">
       <c r="A142" s="6" t="s">
         <v>192</v>
@@ -2764,7 +2968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="7" customFormat="1"/>
+    <row r="148" spans="1:2" s="5" customFormat="1"/>
     <row r="149" spans="1:2" s="6" customFormat="1">
       <c r="A149" s="6" t="s">
         <v>200</v>
@@ -2786,7 +2990,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="7" customFormat="1"/>
+    <row r="152" spans="1:2" s="5" customFormat="1"/>
     <row r="153" spans="1:2" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
         <v>205</v>
@@ -2808,7 +3012,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="7" customFormat="1"/>
+    <row r="156" spans="1:2" s="5" customFormat="1"/>
     <row r="157" spans="1:2" s="6" customFormat="1">
       <c r="A157" s="6" t="s">
         <v>206</v>
@@ -2830,7 +3034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="7" customFormat="1"/>
+    <row r="160" spans="1:2" s="5" customFormat="1"/>
     <row r="161" spans="1:2" s="6" customFormat="1">
       <c r="A161" s="6" t="s">
         <v>209</v>
@@ -2852,7 +3056,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="7" customFormat="1"/>
+    <row r="164" spans="1:2" s="5" customFormat="1"/>
     <row r="165" spans="1:2" s="6" customFormat="1">
       <c r="A165" s="6" t="s">
         <v>214</v>
@@ -2915,9 +3119,9 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="7" customFormat="1"/>
-    <row r="176" spans="1:2" s="8" customFormat="1">
-      <c r="A176" s="8" t="s">
+    <row r="175" spans="1:2" s="5" customFormat="1"/>
+    <row r="176" spans="1:2" s="7" customFormat="1">
+      <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2990,7 +3194,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="7" customFormat="1"/>
+    <row r="186" spans="1:2" s="5" customFormat="1"/>
     <row r="187" spans="1:2" s="6" customFormat="1">
       <c r="A187" s="6" t="s">
         <v>234</v>
@@ -3084,7 +3288,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="7" customFormat="1"/>
+    <row r="199" spans="1:2" s="5" customFormat="1"/>
     <row r="200" spans="1:2" s="6" customFormat="1">
       <c r="A200" s="6" t="s">
         <v>251</v>
@@ -3138,7 +3342,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="7" customFormat="1"/>
+    <row r="207" spans="1:2" s="5" customFormat="1"/>
     <row r="208" spans="1:2" s="6" customFormat="1">
       <c r="A208" s="6" t="s">
         <v>257</v>
@@ -3168,7 +3372,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="7" customFormat="1"/>
+    <row r="212" spans="1:2" s="5" customFormat="1"/>
     <row r="213" spans="1:2" s="6" customFormat="1">
       <c r="A213" s="6" t="s">
         <v>265</v>
@@ -3190,7 +3394,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="7" customFormat="1"/>
+    <row r="216" spans="1:2" s="5" customFormat="1"/>
     <row r="217" spans="1:2" s="6" customFormat="1">
       <c r="A217" s="6" t="s">
         <v>270</v>
@@ -3212,7 +3416,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="7" customFormat="1"/>
+    <row r="220" spans="1:2" s="5" customFormat="1"/>
     <row r="221" spans="1:2" s="6" customFormat="1">
       <c r="A221" s="6" t="s">
         <v>273</v>
@@ -3234,7 +3438,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="7" customFormat="1"/>
+    <row r="224" spans="1:2" s="5" customFormat="1"/>
     <row r="225" spans="1:2" s="6" customFormat="1">
       <c r="A225" s="6" t="s">
         <v>275</v>
@@ -3257,9 +3461,9 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="7" customFormat="1"/>
-    <row r="231" spans="1:2" s="8" customFormat="1">
-      <c r="A231" s="8" t="s">
+    <row r="230" spans="1:2" s="5" customFormat="1"/>
+    <row r="231" spans="1:2" s="7" customFormat="1">
+      <c r="A231" s="7" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3380,7 +3584,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="7" customFormat="1"/>
+    <row r="247" spans="1:2" s="5" customFormat="1"/>
     <row r="248" spans="1:2" s="6" customFormat="1">
       <c r="A248" s="6" t="s">
         <v>294</v>
@@ -3442,10 +3646,11 @@
         <v>223</v>
       </c>
     </row>
+    <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="7" customFormat="1"/>
-    <row r="259" spans="1:2" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A259" s="8" t="s">
+    <row r="258" spans="1:2" s="5" customFormat="1"/>
+    <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="7" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3598,7 +3803,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="7" customFormat="1"/>
+    <row r="279" spans="1:2" s="5" customFormat="1"/>
     <row r="280" spans="1:2" s="6" customFormat="1">
       <c r="A280" s="6" t="s">
         <v>330</v>
@@ -3620,7 +3825,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="7" customFormat="1"/>
+    <row r="283" spans="1:2" s="5" customFormat="1"/>
     <row r="284" spans="1:2" s="6" customFormat="1">
       <c r="A284" s="6" t="s">
         <v>337</v>
@@ -3642,7 +3847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="7" customFormat="1"/>
+    <row r="287" spans="1:2" s="5" customFormat="1"/>
     <row r="288" spans="1:2" s="6" customFormat="1">
       <c r="A288" s="6" t="s">
         <v>338</v>
@@ -3712,19 +3917,317 @@
         <v>326</v>
       </c>
     </row>
+    <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="298" spans="1:2" s="2" customFormat="1"/>
+    <row r="299" spans="1:2" s="5" customFormat="1"/>
+    <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A300" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" s="6" customFormat="1">
+      <c r="A301" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" s="5" customFormat="1"/>
+    <row r="309" spans="1:2" s="6" customFormat="1">
+      <c r="A309" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="313" spans="1:2" s="2" customFormat="1"/>
+    <row r="314" spans="1:2" s="5" customFormat="1"/>
+    <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A315" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" s="6" customFormat="1">
+      <c r="A316" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="5" customFormat="1"/>
+    <row r="328" spans="1:2" s="6" customFormat="1">
+      <c r="A328" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" s="5" customFormat="1"/>
+    <row r="332" spans="1:2" s="6" customFormat="1">
+      <c r="A332" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="336" spans="1:2" s="2" customFormat="1"/>
+    <row r="337" spans="1:2" s="5" customFormat="1"/>
+    <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A338" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" s="6" customFormat="1">
+      <c r="A339" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="344" spans="1:2" s="2" customFormat="1"/>
+    <row r="345" spans="1:2" s="5" customFormat="1"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
+  <mergeCells count="81">
+    <mergeCell ref="A339:XFD339"/>
+    <mergeCell ref="A345:XFD345"/>
+    <mergeCell ref="A315:XFD315"/>
+    <mergeCell ref="A316:XFD316"/>
+    <mergeCell ref="A299:XFD299"/>
+    <mergeCell ref="A300:XFD300"/>
+    <mergeCell ref="A301:XFD301"/>
+    <mergeCell ref="A308:XFD308"/>
+    <mergeCell ref="A309:XFD309"/>
+    <mergeCell ref="A314:XFD314"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A89:XFD89"/>
@@ -3740,45 +4243,23 @@
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A53:XFD53"/>
     <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A337:XFD337"/>
+    <mergeCell ref="A338:XFD338"/>
+    <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="462">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,6 +1490,250 @@
   </si>
   <si>
     <t>系统参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九、Query - 统计查询模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十、AfterSale - 售后模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的销售单据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsCategroyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员证件号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于售后回访）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voucherCode  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,19 +1841,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,15 +2150,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J345"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:XFD345"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A388" sqref="A388:XFD390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1">
@@ -1923,18 +2168,18 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1985,9 +2230,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1"/>
-    <row r="10" spans="1:10" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="9" spans="1:10" s="8" customFormat="1"/>
+    <row r="10" spans="1:10" s="5" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2095,9 +2340,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1"/>
-    <row r="25" spans="1:2" s="6" customFormat="1">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="1:2" s="6" customFormat="1"/>
+    <row r="25" spans="1:2" s="5" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2205,9 +2450,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1"/>
-    <row r="40" spans="1:2" s="6" customFormat="1">
-      <c r="A40" s="6" t="s">
+    <row r="39" spans="1:2" s="6" customFormat="1"/>
+    <row r="40" spans="1:2" s="5" customFormat="1">
+      <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2227,9 +2472,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1"/>
-    <row r="44" spans="1:2" s="6" customFormat="1">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:2" s="6" customFormat="1"/>
+    <row r="44" spans="1:2" s="5" customFormat="1">
+      <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2297,9 +2542,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="5" customFormat="1"/>
-    <row r="54" spans="1:2" s="6" customFormat="1">
-      <c r="A54" s="6" t="s">
+    <row r="53" spans="1:2" s="6" customFormat="1"/>
+    <row r="54" spans="1:2" s="5" customFormat="1">
+      <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2367,9 +2612,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="5" customFormat="1"/>
-    <row r="64" spans="1:2" s="6" customFormat="1">
-      <c r="A64" s="6" t="s">
+    <row r="63" spans="1:2" s="6" customFormat="1"/>
+    <row r="64" spans="1:2" s="5" customFormat="1">
+      <c r="A64" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2477,9 +2722,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1"/>
-    <row r="79" spans="1:2" s="6" customFormat="1">
-      <c r="A79" s="6" t="s">
+    <row r="78" spans="1:2" s="8" customFormat="1"/>
+    <row r="79" spans="1:2" s="5" customFormat="1">
+      <c r="A79" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2529,8 +2774,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="6" customFormat="1">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:2" s="5" customFormat="1">
+      <c r="A89" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2814,9 +3059,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="5" customFormat="1"/>
-    <row r="126" spans="1:2" s="6" customFormat="1">
-      <c r="A126" s="6" t="s">
+    <row r="125" spans="1:2" s="6" customFormat="1"/>
+    <row r="126" spans="1:2" s="5" customFormat="1">
+      <c r="A126" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2836,9 +3081,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="5" customFormat="1"/>
-    <row r="130" spans="1:2" s="6" customFormat="1">
-      <c r="A130" s="6" t="s">
+    <row r="129" spans="1:2" s="6" customFormat="1"/>
+    <row r="130" spans="1:2" s="5" customFormat="1">
+      <c r="A130" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2922,9 +3167,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="5" customFormat="1"/>
-    <row r="142" spans="1:2" s="6" customFormat="1">
-      <c r="A142" s="6" t="s">
+    <row r="141" spans="1:2" s="6" customFormat="1"/>
+    <row r="142" spans="1:2" s="5" customFormat="1">
+      <c r="A142" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2968,9 +3213,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="5" customFormat="1"/>
-    <row r="149" spans="1:2" s="6" customFormat="1">
-      <c r="A149" s="6" t="s">
+    <row r="148" spans="1:2" s="6" customFormat="1"/>
+    <row r="149" spans="1:2" s="5" customFormat="1">
+      <c r="A149" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2990,9 +3235,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="5" customFormat="1"/>
-    <row r="153" spans="1:2" s="6" customFormat="1">
-      <c r="A153" s="6" t="s">
+    <row r="152" spans="1:2" s="6" customFormat="1"/>
+    <row r="153" spans="1:2" s="5" customFormat="1">
+      <c r="A153" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3012,9 +3257,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="5" customFormat="1"/>
-    <row r="157" spans="1:2" s="6" customFormat="1">
-      <c r="A157" s="6" t="s">
+    <row r="156" spans="1:2" s="6" customFormat="1"/>
+    <row r="157" spans="1:2" s="5" customFormat="1">
+      <c r="A157" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3034,9 +3279,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="5" customFormat="1"/>
-    <row r="161" spans="1:2" s="6" customFormat="1">
-      <c r="A161" s="6" t="s">
+    <row r="160" spans="1:2" s="6" customFormat="1"/>
+    <row r="161" spans="1:2" s="5" customFormat="1">
+      <c r="A161" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3056,9 +3301,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="5" customFormat="1"/>
-    <row r="165" spans="1:2" s="6" customFormat="1">
-      <c r="A165" s="6" t="s">
+    <row r="164" spans="1:2" s="6" customFormat="1"/>
+    <row r="165" spans="1:2" s="5" customFormat="1">
+      <c r="A165" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3119,14 +3364,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="5" customFormat="1"/>
+    <row r="175" spans="1:2" s="6" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="6" customFormat="1">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:2" s="5" customFormat="1">
+      <c r="A177" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3194,9 +3439,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="5" customFormat="1"/>
-    <row r="187" spans="1:2" s="6" customFormat="1">
-      <c r="A187" s="6" t="s">
+    <row r="186" spans="1:2" s="6" customFormat="1"/>
+    <row r="187" spans="1:2" s="5" customFormat="1">
+      <c r="A187" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3288,9 +3533,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="5" customFormat="1"/>
-    <row r="200" spans="1:2" s="6" customFormat="1">
-      <c r="A200" s="6" t="s">
+    <row r="199" spans="1:2" s="6" customFormat="1"/>
+    <row r="200" spans="1:2" s="5" customFormat="1">
+      <c r="A200" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3342,9 +3587,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="5" customFormat="1"/>
-    <row r="208" spans="1:2" s="6" customFormat="1">
-      <c r="A208" s="6" t="s">
+    <row r="207" spans="1:2" s="6" customFormat="1"/>
+    <row r="208" spans="1:2" s="5" customFormat="1">
+      <c r="A208" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3372,9 +3617,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="5" customFormat="1"/>
-    <row r="213" spans="1:2" s="6" customFormat="1">
-      <c r="A213" s="6" t="s">
+    <row r="212" spans="1:2" s="6" customFormat="1"/>
+    <row r="213" spans="1:2" s="5" customFormat="1">
+      <c r="A213" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3394,9 +3639,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="5" customFormat="1"/>
-    <row r="217" spans="1:2" s="6" customFormat="1">
-      <c r="A217" s="6" t="s">
+    <row r="216" spans="1:2" s="6" customFormat="1"/>
+    <row r="217" spans="1:2" s="5" customFormat="1">
+      <c r="A217" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3416,9 +3661,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="5" customFormat="1"/>
-    <row r="221" spans="1:2" s="6" customFormat="1">
-      <c r="A221" s="6" t="s">
+    <row r="220" spans="1:2" s="6" customFormat="1"/>
+    <row r="221" spans="1:2" s="5" customFormat="1">
+      <c r="A221" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3438,9 +3683,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="5" customFormat="1"/>
-    <row r="225" spans="1:2" s="6" customFormat="1">
-      <c r="A225" s="6" t="s">
+    <row r="224" spans="1:2" s="6" customFormat="1"/>
+    <row r="225" spans="1:2" s="5" customFormat="1">
+      <c r="A225" s="5" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3461,14 +3706,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="5" customFormat="1"/>
+    <row r="230" spans="1:2" s="6" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="6" customFormat="1">
-      <c r="A232" s="6" t="s">
+    <row r="232" spans="1:2" s="5" customFormat="1">
+      <c r="A232" s="5" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3584,9 +3829,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="5" customFormat="1"/>
-    <row r="248" spans="1:2" s="6" customFormat="1">
-      <c r="A248" s="6" t="s">
+    <row r="247" spans="1:2" s="6" customFormat="1"/>
+    <row r="248" spans="1:2" s="5" customFormat="1">
+      <c r="A248" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3648,20 +3893,20 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="5" customFormat="1"/>
+    <row r="258" spans="1:2" s="6" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="6" customFormat="1">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:2" s="5" customFormat="1">
+      <c r="A260" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>310</v>
@@ -3803,9 +4048,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="5" customFormat="1"/>
-    <row r="280" spans="1:2" s="6" customFormat="1">
-      <c r="A280" s="6" t="s">
+    <row r="279" spans="1:2" s="6" customFormat="1"/>
+    <row r="280" spans="1:2" s="5" customFormat="1">
+      <c r="A280" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3825,9 +4070,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="5" customFormat="1"/>
-    <row r="284" spans="1:2" s="6" customFormat="1">
-      <c r="A284" s="6" t="s">
+    <row r="283" spans="1:2" s="6" customFormat="1"/>
+    <row r="284" spans="1:2" s="5" customFormat="1">
+      <c r="A284" s="5" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3847,9 +4092,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="5" customFormat="1"/>
-    <row r="288" spans="1:2" s="6" customFormat="1">
-      <c r="A288" s="6" t="s">
+    <row r="287" spans="1:2" s="6" customFormat="1"/>
+    <row r="288" spans="1:2" s="5" customFormat="1">
+      <c r="A288" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3919,14 +4164,14 @@
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="5" customFormat="1"/>
+    <row r="299" spans="1:2" s="6" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="6" customFormat="1">
-      <c r="A301" s="6" t="s">
+    <row r="301" spans="1:2" s="5" customFormat="1">
+      <c r="A301" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3978,9 +4223,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="5" customFormat="1"/>
-    <row r="309" spans="1:2" s="6" customFormat="1">
-      <c r="A309" s="6" t="s">
+    <row r="308" spans="1:2" s="6" customFormat="1"/>
+    <row r="309" spans="1:2" s="5" customFormat="1">
+      <c r="A309" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4002,14 +4247,14 @@
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="5" customFormat="1"/>
+    <row r="314" spans="1:2" s="6" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="6" customFormat="1">
-      <c r="A316" s="6" t="s">
+    <row r="316" spans="1:2" s="5" customFormat="1">
+      <c r="A316" s="5" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4093,9 +4338,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="5" customFormat="1"/>
-    <row r="328" spans="1:2" s="6" customFormat="1">
-      <c r="A328" s="6" t="s">
+    <row r="327" spans="1:2" s="6" customFormat="1"/>
+    <row r="328" spans="1:2" s="5" customFormat="1">
+      <c r="A328" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4115,9 +4360,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="5" customFormat="1"/>
-    <row r="332" spans="1:2" s="6" customFormat="1">
-      <c r="A332" s="6" t="s">
+    <row r="331" spans="1:2" s="6" customFormat="1"/>
+    <row r="332" spans="1:2" s="5" customFormat="1">
+      <c r="A332" s="5" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4139,14 +4384,14 @@
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="5" customFormat="1"/>
+    <row r="337" spans="1:2" s="6" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="6" customFormat="1">
-      <c r="A339" s="6" t="s">
+    <row r="339" spans="1:2" s="5" customFormat="1">
+      <c r="A339" s="5" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4176,58 +4421,308 @@
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="5" customFormat="1"/>
+    <row r="345" spans="1:2" s="6" customFormat="1"/>
+    <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A346" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" s="6" customFormat="1"/>
+    <row r="348" spans="1:2" s="2" customFormat="1"/>
+    <row r="349" spans="1:2" s="6" customFormat="1"/>
+    <row r="350" spans="1:2" s="7" customFormat="1">
+      <c r="A350" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>437</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="6" customFormat="1"/>
+    <row r="373" spans="1:2">
+      <c r="A373" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B373" s="5"/>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="6" customFormat="1"/>
+    <row r="377" spans="1:2">
+      <c r="A377" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="6" customFormat="1"/>
+    <row r="381" spans="1:2">
+      <c r="A381" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="6" customFormat="1"/>
+    <row r="385" spans="1:2" s="5" customFormat="1">
+      <c r="A385" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="6" customFormat="1"/>
+    <row r="389" spans="1:2" s="2" customFormat="1"/>
+    <row r="390" spans="1:2" s="6" customFormat="1"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A339:XFD339"/>
-    <mergeCell ref="A345:XFD345"/>
-    <mergeCell ref="A315:XFD315"/>
-    <mergeCell ref="A316:XFD316"/>
-    <mergeCell ref="A299:XFD299"/>
-    <mergeCell ref="A300:XFD300"/>
-    <mergeCell ref="A301:XFD301"/>
-    <mergeCell ref="A308:XFD308"/>
-    <mergeCell ref="A309:XFD309"/>
-    <mergeCell ref="A314:XFD314"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
+  <mergeCells count="96">
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A88:XFD88"/>
     <mergeCell ref="A89:XFD89"/>
@@ -4243,17 +4738,55 @@
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A53:XFD53"/>
     <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A339:XFD339"/>
+    <mergeCell ref="A345:XFD345"/>
+    <mergeCell ref="A315:XFD315"/>
+    <mergeCell ref="A316:XFD316"/>
+    <mergeCell ref="A299:XFD299"/>
+    <mergeCell ref="A300:XFD300"/>
+    <mergeCell ref="A301:XFD301"/>
+    <mergeCell ref="A308:XFD308"/>
+    <mergeCell ref="A309:XFD309"/>
+    <mergeCell ref="A314:XFD314"/>
     <mergeCell ref="A337:XFD337"/>
     <mergeCell ref="A338:XFD338"/>
     <mergeCell ref="A331:XFD331"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="460">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,15 +1505,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涉及的商户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的商品品类编号</t>
+    <t>voucherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原售后记录标识（适用于售后回访）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理问题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理意见备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后处理结果备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrStatusId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrProblemRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrIdeaRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrResultRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.After_Sale_Record - 售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeBeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrDisposeEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录问题类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条款编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的营业员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.After_Sale_Record_Status - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.After_Sale_Record_Type - 售后记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldAsrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asrTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,118 +1713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>voucherCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merchantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsCategroyCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistantId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及的营业员证件号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原售后记录标识（适用于售后回访）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldAsrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrTypeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asrProblemTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,91 +1721,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>售后处理问题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理意见备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后处理结果备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrStatusId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrProblemRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrIdeaRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrResultRemarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.After_Sale_Record - 售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeBeginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrDisposeEndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.After_Sale_Record_Problem_Type - 售后问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录问题类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asrId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条款编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.After_Sale_Record_Status - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.After_Sale_Record_Type - 售后记录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Rl_AfterSale_Evaluate（N:N）</t>
+    <t>goodsCategroyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的商品品类名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1841,19 +1833,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2152,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A388" sqref="A388:XFD390"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2168,18 +2160,18 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2230,9 +2222,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1"/>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:10" s="9" customFormat="1"/>
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2340,9 +2332,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1"/>
-    <row r="25" spans="1:2" s="5" customFormat="1">
-      <c r="A25" s="5" t="s">
+    <row r="24" spans="1:2" s="5" customFormat="1"/>
+    <row r="25" spans="1:2" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2450,9 +2442,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1"/>
-    <row r="40" spans="1:2" s="5" customFormat="1">
-      <c r="A40" s="5" t="s">
+    <row r="39" spans="1:2" s="5" customFormat="1"/>
+    <row r="40" spans="1:2" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2472,9 +2464,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1"/>
-    <row r="44" spans="1:2" s="5" customFormat="1">
-      <c r="A44" s="5" t="s">
+    <row r="43" spans="1:2" s="5" customFormat="1"/>
+    <row r="44" spans="1:2" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2542,9 +2534,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="6" customFormat="1"/>
-    <row r="54" spans="1:2" s="5" customFormat="1">
-      <c r="A54" s="5" t="s">
+    <row r="53" spans="1:2" s="5" customFormat="1"/>
+    <row r="54" spans="1:2" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2612,9 +2604,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1"/>
-    <row r="64" spans="1:2" s="5" customFormat="1">
-      <c r="A64" s="5" t="s">
+    <row r="63" spans="1:2" s="5" customFormat="1"/>
+    <row r="64" spans="1:2" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2722,9 +2714,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="8" customFormat="1"/>
-    <row r="79" spans="1:2" s="5" customFormat="1">
-      <c r="A79" s="5" t="s">
+    <row r="78" spans="1:2" s="9" customFormat="1"/>
+    <row r="79" spans="1:2" s="6" customFormat="1">
+      <c r="A79" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2774,8 +2766,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" s="6" customFormat="1">
+      <c r="A89" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3059,9 +3051,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="6" customFormat="1"/>
-    <row r="126" spans="1:2" s="5" customFormat="1">
-      <c r="A126" s="5" t="s">
+    <row r="125" spans="1:2" s="5" customFormat="1"/>
+    <row r="126" spans="1:2" s="6" customFormat="1">
+      <c r="A126" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3081,9 +3073,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="6" customFormat="1"/>
-    <row r="130" spans="1:2" s="5" customFormat="1">
-      <c r="A130" s="5" t="s">
+    <row r="129" spans="1:2" s="5" customFormat="1"/>
+    <row r="130" spans="1:2" s="6" customFormat="1">
+      <c r="A130" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3167,9 +3159,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="6" customFormat="1"/>
-    <row r="142" spans="1:2" s="5" customFormat="1">
-      <c r="A142" s="5" t="s">
+    <row r="141" spans="1:2" s="5" customFormat="1"/>
+    <row r="142" spans="1:2" s="6" customFormat="1">
+      <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3213,9 +3205,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="6" customFormat="1"/>
-    <row r="149" spans="1:2" s="5" customFormat="1">
-      <c r="A149" s="5" t="s">
+    <row r="148" spans="1:2" s="5" customFormat="1"/>
+    <row r="149" spans="1:2" s="6" customFormat="1">
+      <c r="A149" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3235,9 +3227,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="6" customFormat="1"/>
-    <row r="153" spans="1:2" s="5" customFormat="1">
-      <c r="A153" s="5" t="s">
+    <row r="152" spans="1:2" s="5" customFormat="1"/>
+    <row r="153" spans="1:2" s="6" customFormat="1">
+      <c r="A153" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3257,9 +3249,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="6" customFormat="1"/>
-    <row r="157" spans="1:2" s="5" customFormat="1">
-      <c r="A157" s="5" t="s">
+    <row r="156" spans="1:2" s="5" customFormat="1"/>
+    <row r="157" spans="1:2" s="6" customFormat="1">
+      <c r="A157" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3279,9 +3271,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="6" customFormat="1"/>
-    <row r="161" spans="1:2" s="5" customFormat="1">
-      <c r="A161" s="5" t="s">
+    <row r="160" spans="1:2" s="5" customFormat="1"/>
+    <row r="161" spans="1:2" s="6" customFormat="1">
+      <c r="A161" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3301,9 +3293,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="6" customFormat="1"/>
-    <row r="165" spans="1:2" s="5" customFormat="1">
-      <c r="A165" s="5" t="s">
+    <row r="164" spans="1:2" s="5" customFormat="1"/>
+    <row r="165" spans="1:2" s="6" customFormat="1">
+      <c r="A165" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3364,14 +3356,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="6" customFormat="1"/>
+    <row r="175" spans="1:2" s="5" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="5" customFormat="1">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:2" s="6" customFormat="1">
+      <c r="A177" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3439,9 +3431,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="6" customFormat="1"/>
-    <row r="187" spans="1:2" s="5" customFormat="1">
-      <c r="A187" s="5" t="s">
+    <row r="186" spans="1:2" s="5" customFormat="1"/>
+    <row r="187" spans="1:2" s="6" customFormat="1">
+      <c r="A187" s="6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3533,9 +3525,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1"/>
-    <row r="200" spans="1:2" s="5" customFormat="1">
-      <c r="A200" s="5" t="s">
+    <row r="199" spans="1:2" s="5" customFormat="1"/>
+    <row r="200" spans="1:2" s="6" customFormat="1">
+      <c r="A200" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3587,9 +3579,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1"/>
-    <row r="208" spans="1:2" s="5" customFormat="1">
-      <c r="A208" s="5" t="s">
+    <row r="207" spans="1:2" s="5" customFormat="1"/>
+    <row r="208" spans="1:2" s="6" customFormat="1">
+      <c r="A208" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3617,9 +3609,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="6" customFormat="1"/>
-    <row r="213" spans="1:2" s="5" customFormat="1">
-      <c r="A213" s="5" t="s">
+    <row r="212" spans="1:2" s="5" customFormat="1"/>
+    <row r="213" spans="1:2" s="6" customFormat="1">
+      <c r="A213" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3639,9 +3631,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="6" customFormat="1"/>
-    <row r="217" spans="1:2" s="5" customFormat="1">
-      <c r="A217" s="5" t="s">
+    <row r="216" spans="1:2" s="5" customFormat="1"/>
+    <row r="217" spans="1:2" s="6" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3661,9 +3653,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="6" customFormat="1"/>
-    <row r="221" spans="1:2" s="5" customFormat="1">
-      <c r="A221" s="5" t="s">
+    <row r="220" spans="1:2" s="5" customFormat="1"/>
+    <row r="221" spans="1:2" s="6" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3683,9 +3675,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="6" customFormat="1"/>
-    <row r="225" spans="1:2" s="5" customFormat="1">
-      <c r="A225" s="5" t="s">
+    <row r="224" spans="1:2" s="5" customFormat="1"/>
+    <row r="225" spans="1:2" s="6" customFormat="1">
+      <c r="A225" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3706,14 +3698,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="6" customFormat="1"/>
+    <row r="230" spans="1:2" s="5" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="5" customFormat="1">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:2" s="6" customFormat="1">
+      <c r="A232" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3829,9 +3821,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="6" customFormat="1"/>
-    <row r="248" spans="1:2" s="5" customFormat="1">
-      <c r="A248" s="5" t="s">
+    <row r="247" spans="1:2" s="5" customFormat="1"/>
+    <row r="248" spans="1:2" s="6" customFormat="1">
+      <c r="A248" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3893,20 +3885,20 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="6" customFormat="1"/>
+    <row r="258" spans="1:2" s="5" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="5" customFormat="1">
-      <c r="A260" s="5" t="s">
+    <row r="260" spans="1:2" s="6" customFormat="1">
+      <c r="A260" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>310</v>
@@ -4048,9 +4040,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="6" customFormat="1"/>
-    <row r="280" spans="1:2" s="5" customFormat="1">
-      <c r="A280" s="5" t="s">
+    <row r="279" spans="1:2" s="5" customFormat="1"/>
+    <row r="280" spans="1:2" s="6" customFormat="1">
+      <c r="A280" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4070,9 +4062,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="6" customFormat="1"/>
-    <row r="284" spans="1:2" s="5" customFormat="1">
-      <c r="A284" s="5" t="s">
+    <row r="283" spans="1:2" s="5" customFormat="1"/>
+    <row r="284" spans="1:2" s="6" customFormat="1">
+      <c r="A284" s="6" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4092,9 +4084,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="6" customFormat="1"/>
-    <row r="288" spans="1:2" s="5" customFormat="1">
-      <c r="A288" s="5" t="s">
+    <row r="287" spans="1:2" s="5" customFormat="1"/>
+    <row r="288" spans="1:2" s="6" customFormat="1">
+      <c r="A288" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4164,14 +4156,14 @@
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="6" customFormat="1"/>
+    <row r="299" spans="1:2" s="5" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="5" customFormat="1">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:2" s="6" customFormat="1">
+      <c r="A301" s="6" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4223,9 +4215,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="6" customFormat="1"/>
-    <row r="309" spans="1:2" s="5" customFormat="1">
-      <c r="A309" s="5" t="s">
+    <row r="308" spans="1:2" s="5" customFormat="1"/>
+    <row r="309" spans="1:2" s="6" customFormat="1">
+      <c r="A309" s="6" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4247,14 +4239,14 @@
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="6" customFormat="1"/>
+    <row r="314" spans="1:2" s="5" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="5" customFormat="1">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:2" s="6" customFormat="1">
+      <c r="A316" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4338,9 +4330,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="6" customFormat="1"/>
-    <row r="328" spans="1:2" s="5" customFormat="1">
-      <c r="A328" s="5" t="s">
+    <row r="327" spans="1:2" s="5" customFormat="1"/>
+    <row r="328" spans="1:2" s="6" customFormat="1">
+      <c r="A328" s="6" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4360,9 +4352,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="6" customFormat="1"/>
-    <row r="332" spans="1:2" s="5" customFormat="1">
-      <c r="A332" s="5" t="s">
+    <row r="331" spans="1:2" s="5" customFormat="1"/>
+    <row r="332" spans="1:2" s="6" customFormat="1">
+      <c r="A332" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4384,14 +4376,14 @@
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="6" customFormat="1"/>
+    <row r="337" spans="1:2" s="5" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="5" customFormat="1">
-      <c r="A339" s="5" t="s">
+    <row r="339" spans="1:2" s="6" customFormat="1">
+      <c r="A339" s="6" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4421,85 +4413,85 @@
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="6" customFormat="1"/>
+    <row r="345" spans="1:2" s="5" customFormat="1"/>
     <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="6" customFormat="1"/>
+    <row r="347" spans="1:2" s="5" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
-    <row r="349" spans="1:2" s="6" customFormat="1"/>
+    <row r="349" spans="1:2" s="5" customFormat="1"/>
     <row r="350" spans="1:2" s="7" customFormat="1">
       <c r="A350" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B351" s="5"/>
+      <c r="A351" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>403</v>
@@ -4507,276 +4499,196 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="3" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="3" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" s="6" customFormat="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="5" customFormat="1"/>
     <row r="373" spans="1:2">
-      <c r="A373" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B373" s="5"/>
+      <c r="A373" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" s="6" customFormat="1"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="5" customFormat="1"/>
     <row r="377" spans="1:2">
-      <c r="A377" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B377" s="5"/>
+      <c r="A377" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" s="6" customFormat="1"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="5" customFormat="1"/>
     <row r="381" spans="1:2">
-      <c r="A381" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B381" s="5"/>
+      <c r="A381" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" s="6" customFormat="1"/>
-    <row r="385" spans="1:2" s="5" customFormat="1">
-      <c r="A385" s="5" t="s">
-        <v>461</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="5" customFormat="1"/>
+    <row r="385" spans="1:2" s="6" customFormat="1">
+      <c r="A385" s="6" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" s="6" customFormat="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="5" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
-    <row r="390" spans="1:2" s="6" customFormat="1"/>
+    <row r="390" spans="1:2" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
     <mergeCell ref="A339:XFD339"/>
     <mergeCell ref="A345:XFD345"/>
     <mergeCell ref="A315:XFD315"/>
@@ -4793,6 +4705,86 @@
     <mergeCell ref="A332:XFD332"/>
     <mergeCell ref="A327:XFD327"/>
     <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="488">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,6 +1726,113 @@
   </si>
   <si>
     <t>涉及的商品品类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一、Goods - 商品模块（含品类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品品类 - Goods_Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,19 +1940,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2142,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J390"/>
+  <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2160,18 +2267,18 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2222,9 +2329,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1"/>
-    <row r="10" spans="1:10" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="9" spans="1:10" s="8" customFormat="1"/>
+    <row r="10" spans="1:10" s="5" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2332,9 +2439,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1"/>
-    <row r="25" spans="1:2" s="6" customFormat="1">
-      <c r="A25" s="6" t="s">
+    <row r="24" spans="1:2" s="6" customFormat="1"/>
+    <row r="25" spans="1:2" s="5" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2442,9 +2549,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1"/>
-    <row r="40" spans="1:2" s="6" customFormat="1">
-      <c r="A40" s="6" t="s">
+    <row r="39" spans="1:2" s="6" customFormat="1"/>
+    <row r="40" spans="1:2" s="5" customFormat="1">
+      <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2464,9 +2571,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1"/>
-    <row r="44" spans="1:2" s="6" customFormat="1">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:2" s="6" customFormat="1"/>
+    <row r="44" spans="1:2" s="5" customFormat="1">
+      <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2534,9 +2641,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="5" customFormat="1"/>
-    <row r="54" spans="1:2" s="6" customFormat="1">
-      <c r="A54" s="6" t="s">
+    <row r="53" spans="1:2" s="6" customFormat="1"/>
+    <row r="54" spans="1:2" s="5" customFormat="1">
+      <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2604,9 +2711,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="5" customFormat="1"/>
-    <row r="64" spans="1:2" s="6" customFormat="1">
-      <c r="A64" s="6" t="s">
+    <row r="63" spans="1:2" s="6" customFormat="1"/>
+    <row r="64" spans="1:2" s="5" customFormat="1">
+      <c r="A64" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2714,9 +2821,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1"/>
-    <row r="79" spans="1:2" s="6" customFormat="1">
-      <c r="A79" s="6" t="s">
+    <row r="78" spans="1:2" s="8" customFormat="1"/>
+    <row r="79" spans="1:2" s="5" customFormat="1">
+      <c r="A79" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2766,8 +2873,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="6" customFormat="1">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:2" s="5" customFormat="1">
+      <c r="A89" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3051,9 +3158,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="5" customFormat="1"/>
-    <row r="126" spans="1:2" s="6" customFormat="1">
-      <c r="A126" s="6" t="s">
+    <row r="125" spans="1:2" s="6" customFormat="1"/>
+    <row r="126" spans="1:2" s="5" customFormat="1">
+      <c r="A126" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3073,9 +3180,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="5" customFormat="1"/>
-    <row r="130" spans="1:2" s="6" customFormat="1">
-      <c r="A130" s="6" t="s">
+    <row r="129" spans="1:2" s="6" customFormat="1"/>
+    <row r="130" spans="1:2" s="5" customFormat="1">
+      <c r="A130" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3159,9 +3266,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="5" customFormat="1"/>
-    <row r="142" spans="1:2" s="6" customFormat="1">
-      <c r="A142" s="6" t="s">
+    <row r="141" spans="1:2" s="6" customFormat="1"/>
+    <row r="142" spans="1:2" s="5" customFormat="1">
+      <c r="A142" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3205,9 +3312,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="5" customFormat="1"/>
-    <row r="149" spans="1:2" s="6" customFormat="1">
-      <c r="A149" s="6" t="s">
+    <row r="148" spans="1:2" s="6" customFormat="1"/>
+    <row r="149" spans="1:2" s="5" customFormat="1">
+      <c r="A149" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3227,9 +3334,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="5" customFormat="1"/>
-    <row r="153" spans="1:2" s="6" customFormat="1">
-      <c r="A153" s="6" t="s">
+    <row r="152" spans="1:2" s="6" customFormat="1"/>
+    <row r="153" spans="1:2" s="5" customFormat="1">
+      <c r="A153" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3249,9 +3356,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="5" customFormat="1"/>
-    <row r="157" spans="1:2" s="6" customFormat="1">
-      <c r="A157" s="6" t="s">
+    <row r="156" spans="1:2" s="6" customFormat="1"/>
+    <row r="157" spans="1:2" s="5" customFormat="1">
+      <c r="A157" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3271,9 +3378,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="5" customFormat="1"/>
-    <row r="161" spans="1:2" s="6" customFormat="1">
-      <c r="A161" s="6" t="s">
+    <row r="160" spans="1:2" s="6" customFormat="1"/>
+    <row r="161" spans="1:2" s="5" customFormat="1">
+      <c r="A161" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3293,9 +3400,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="5" customFormat="1"/>
-    <row r="165" spans="1:2" s="6" customFormat="1">
-      <c r="A165" s="6" t="s">
+    <row r="164" spans="1:2" s="6" customFormat="1"/>
+    <row r="165" spans="1:2" s="5" customFormat="1">
+      <c r="A165" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3356,14 +3463,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="5" customFormat="1"/>
+    <row r="175" spans="1:2" s="6" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="6" customFormat="1">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:2" s="5" customFormat="1">
+      <c r="A177" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3431,9 +3538,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="5" customFormat="1"/>
-    <row r="187" spans="1:2" s="6" customFormat="1">
-      <c r="A187" s="6" t="s">
+    <row r="186" spans="1:2" s="6" customFormat="1"/>
+    <row r="187" spans="1:2" s="5" customFormat="1">
+      <c r="A187" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3525,9 +3632,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="5" customFormat="1"/>
-    <row r="200" spans="1:2" s="6" customFormat="1">
-      <c r="A200" s="6" t="s">
+    <row r="199" spans="1:2" s="6" customFormat="1"/>
+    <row r="200" spans="1:2" s="5" customFormat="1">
+      <c r="A200" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3579,9 +3686,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="5" customFormat="1"/>
-    <row r="208" spans="1:2" s="6" customFormat="1">
-      <c r="A208" s="6" t="s">
+    <row r="207" spans="1:2" s="6" customFormat="1"/>
+    <row r="208" spans="1:2" s="5" customFormat="1">
+      <c r="A208" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3609,9 +3716,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="5" customFormat="1"/>
-    <row r="213" spans="1:2" s="6" customFormat="1">
-      <c r="A213" s="6" t="s">
+    <row r="212" spans="1:2" s="6" customFormat="1"/>
+    <row r="213" spans="1:2" s="5" customFormat="1">
+      <c r="A213" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3631,9 +3738,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="5" customFormat="1"/>
-    <row r="217" spans="1:2" s="6" customFormat="1">
-      <c r="A217" s="6" t="s">
+    <row r="216" spans="1:2" s="6" customFormat="1"/>
+    <row r="217" spans="1:2" s="5" customFormat="1">
+      <c r="A217" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3653,9 +3760,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="5" customFormat="1"/>
-    <row r="221" spans="1:2" s="6" customFormat="1">
-      <c r="A221" s="6" t="s">
+    <row r="220" spans="1:2" s="6" customFormat="1"/>
+    <row r="221" spans="1:2" s="5" customFormat="1">
+      <c r="A221" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3675,9 +3782,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="5" customFormat="1"/>
-    <row r="225" spans="1:2" s="6" customFormat="1">
-      <c r="A225" s="6" t="s">
+    <row r="224" spans="1:2" s="6" customFormat="1"/>
+    <row r="225" spans="1:2" s="5" customFormat="1">
+      <c r="A225" s="5" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3698,14 +3805,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="5" customFormat="1"/>
+    <row r="230" spans="1:2" s="6" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="6" customFormat="1">
-      <c r="A232" s="6" t="s">
+    <row r="232" spans="1:2" s="5" customFormat="1">
+      <c r="A232" s="5" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3821,9 +3928,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="5" customFormat="1"/>
-    <row r="248" spans="1:2" s="6" customFormat="1">
-      <c r="A248" s="6" t="s">
+    <row r="247" spans="1:2" s="6" customFormat="1"/>
+    <row r="248" spans="1:2" s="5" customFormat="1">
+      <c r="A248" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3885,14 +3992,14 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="5" customFormat="1"/>
+    <row r="258" spans="1:2" s="6" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="6" customFormat="1">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:2" s="5" customFormat="1">
+      <c r="A260" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4040,9 +4147,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="5" customFormat="1"/>
-    <row r="280" spans="1:2" s="6" customFormat="1">
-      <c r="A280" s="6" t="s">
+    <row r="279" spans="1:2" s="6" customFormat="1"/>
+    <row r="280" spans="1:2" s="5" customFormat="1">
+      <c r="A280" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4062,9 +4169,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="5" customFormat="1"/>
-    <row r="284" spans="1:2" s="6" customFormat="1">
-      <c r="A284" s="6" t="s">
+    <row r="283" spans="1:2" s="6" customFormat="1"/>
+    <row r="284" spans="1:2" s="5" customFormat="1">
+      <c r="A284" s="5" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4084,9 +4191,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="5" customFormat="1"/>
-    <row r="288" spans="1:2" s="6" customFormat="1">
-      <c r="A288" s="6" t="s">
+    <row r="287" spans="1:2" s="6" customFormat="1"/>
+    <row r="288" spans="1:2" s="5" customFormat="1">
+      <c r="A288" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4156,14 +4263,14 @@
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="5" customFormat="1"/>
+    <row r="299" spans="1:2" s="6" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="6" customFormat="1">
-      <c r="A301" s="6" t="s">
+    <row r="301" spans="1:2" s="5" customFormat="1">
+      <c r="A301" s="5" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4215,9 +4322,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="5" customFormat="1"/>
-    <row r="309" spans="1:2" s="6" customFormat="1">
-      <c r="A309" s="6" t="s">
+    <row r="308" spans="1:2" s="6" customFormat="1"/>
+    <row r="309" spans="1:2" s="5" customFormat="1">
+      <c r="A309" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4239,14 +4346,14 @@
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="5" customFormat="1"/>
+    <row r="314" spans="1:2" s="6" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="6" customFormat="1">
-      <c r="A316" s="6" t="s">
+    <row r="316" spans="1:2" s="5" customFormat="1">
+      <c r="A316" s="5" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4330,9 +4437,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="5" customFormat="1"/>
-    <row r="328" spans="1:2" s="6" customFormat="1">
-      <c r="A328" s="6" t="s">
+    <row r="327" spans="1:2" s="6" customFormat="1"/>
+    <row r="328" spans="1:2" s="5" customFormat="1">
+      <c r="A328" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4352,9 +4459,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="5" customFormat="1"/>
-    <row r="332" spans="1:2" s="6" customFormat="1">
-      <c r="A332" s="6" t="s">
+    <row r="331" spans="1:2" s="6" customFormat="1"/>
+    <row r="332" spans="1:2" s="5" customFormat="1">
+      <c r="A332" s="5" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4376,14 +4483,14 @@
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="5" customFormat="1"/>
+    <row r="337" spans="1:2" s="6" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="6" customFormat="1">
-      <c r="A339" s="6" t="s">
+    <row r="339" spans="1:2" s="5" customFormat="1">
+      <c r="A339" s="5" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4413,25 +4520,25 @@
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="5" customFormat="1"/>
+    <row r="345" spans="1:2" s="6" customFormat="1"/>
     <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="5" customFormat="1"/>
+    <row r="347" spans="1:2" s="6" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
-    <row r="349" spans="1:2" s="5" customFormat="1"/>
+    <row r="349" spans="1:2" s="6" customFormat="1"/>
     <row r="350" spans="1:2" s="7" customFormat="1">
       <c r="A350" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="6" t="s">
+      <c r="A351" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B351" s="6"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
@@ -4593,12 +4700,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="5" customFormat="1"/>
+    <row r="372" spans="1:2" s="6" customFormat="1"/>
     <row r="373" spans="1:2">
-      <c r="A373" s="6" t="s">
+      <c r="A373" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B373" s="6"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
@@ -4616,12 +4723,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="5" customFormat="1"/>
+    <row r="376" spans="1:2" s="6" customFormat="1"/>
     <row r="377" spans="1:2">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B377" s="6"/>
+      <c r="B377" s="5"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
@@ -4639,12 +4746,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="5" customFormat="1"/>
+    <row r="380" spans="1:2" s="6" customFormat="1"/>
     <row r="381" spans="1:2">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B381" s="6"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
@@ -4662,9 +4769,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="5" customFormat="1"/>
-    <row r="385" spans="1:2" s="6" customFormat="1">
-      <c r="A385" s="6" t="s">
+    <row r="384" spans="1:2" s="6" customFormat="1"/>
+    <row r="385" spans="1:2" s="5" customFormat="1">
+      <c r="A385" s="5" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4684,11 +4791,247 @@
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:2" s="5" customFormat="1"/>
+    <row r="388" spans="1:2" s="6" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
-    <row r="390" spans="1:2" s="5" customFormat="1"/>
+    <row r="390" spans="1:2" s="6" customFormat="1"/>
+    <row r="391" spans="1:2" s="8" customFormat="1">
+      <c r="A391" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" s="5" customFormat="1">
+      <c r="A392" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" s="6" customFormat="1"/>
+    <row r="402" spans="1:2" s="5" customFormat="1">
+      <c r="A402" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="100">
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
     <mergeCell ref="A339:XFD339"/>
     <mergeCell ref="A345:XFD345"/>
     <mergeCell ref="A315:XFD315"/>
@@ -4705,86 +5048,6 @@
     <mergeCell ref="A332:XFD332"/>
     <mergeCell ref="A327:XFD327"/>
     <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="503">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1737,102 +1737,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gcName</t>
+  </si>
+  <si>
+    <t>gcGradeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upGradeGcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsPrice</t>
+  </si>
+  <si>
+    <t>2.商品 - Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类所属级别序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品类别编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gcCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gcName</t>
-  </si>
-  <si>
-    <t>gcGradeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upGradeGcCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifyUserCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>goodsCategoryCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsPrice</t>
-  </si>
-  <si>
-    <t>2.商品 - Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类所属级别序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级品类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品类别编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属商品品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品标签价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次编辑时间</t>
+    <t>十二、Evaluate - 评价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商户评价 - Merchant_Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meItemTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商户评价权重 -  Merchant_Evaluate_Detail_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meSonItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该子评价项目占当前父评价项目的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子评价项目标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meParentItemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2249,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J411"/>
+  <dimension ref="A1:J432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:XFD432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4794,8 +4854,8 @@
     <row r="388" spans="1:2" s="6" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
     <row r="390" spans="1:2" s="6" customFormat="1"/>
-    <row r="391" spans="1:2" s="8" customFormat="1">
-      <c r="A391" s="8" t="s">
+    <row r="391" spans="1:2" s="7" customFormat="1">
+      <c r="A391" s="7" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4806,50 +4866,50 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4857,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4865,37 +4925,37 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="6" customFormat="1"/>
     <row r="402" spans="1:2" s="5" customFormat="1">
       <c r="A402" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4903,15 +4963,15 @@
         <v>175</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4919,7 +4979,7 @@
         <v>136</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4927,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4935,7 +4995,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4943,15 +5003,131 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" s="6" customFormat="1"/>
+    <row r="413" spans="1:2" s="2" customFormat="1"/>
+    <row r="414" spans="1:2" s="6" customFormat="1"/>
+    <row r="415" spans="1:2" s="7" customFormat="1">
+      <c r="A415" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" s="5" customFormat="1">
+      <c r="A416" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B417" s="3" t="s">
         <v>480</v>
       </c>
     </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" s="5" customFormat="1">
+      <c r="A426" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" s="6" customFormat="1"/>
+    <row r="431" spans="1:2" s="2" customFormat="1"/>
+    <row r="432" spans="1:2" s="6" customFormat="1"/>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="107">
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A415:XFD415"/>
     <mergeCell ref="A391:XFD391"/>
     <mergeCell ref="A392:XFD392"/>
     <mergeCell ref="A401:XFD401"/>
     <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
     <mergeCell ref="A390:XFD390"/>
     <mergeCell ref="A384:XFD384"/>
     <mergeCell ref="A385:XFD385"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="548">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">二、Merchant - 商户模块(含招商) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.Merchant - 商户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1893,6 +1889,182 @@
   </si>
   <si>
     <t>meParentItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二、Merchant - 招商模块(含商户) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三、商户管理（并入招商模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四、日志管理（暂时不涉及）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五、品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandCode</t>
+  </si>
+  <si>
+    <t>goodsCategoryCode</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessLicense</t>
+  </si>
+  <si>
+    <t>registeredCapital</t>
+  </si>
+  <si>
+    <t>taxRegistrationNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalPersonNo</t>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌助记符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.品牌信息 - Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.品牌认证类型 - Brand_Cert_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.品牌认证 - Brand_Cert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属商品品类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照注册号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型标识</t>
+  </si>
+  <si>
+    <t>认证类型名称</t>
+  </si>
+  <si>
+    <t>品牌认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属品牌标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,10 +2181,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2309,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J432"/>
+  <dimension ref="A1:J473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:XFD432"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471:B473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2327,18 +2499,18 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2389,7 +2561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1"/>
+    <row r="9" spans="1:10" s="9" customFormat="1"/>
     <row r="10" spans="1:10" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>19</v>
@@ -2881,7 +3053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="8" customFormat="1"/>
+    <row r="78" spans="1:2" s="9" customFormat="1"/>
     <row r="79" spans="1:2" s="5" customFormat="1">
       <c r="A79" s="5" t="s">
         <v>97</v>
@@ -2930,273 +3102,273 @@
     <row r="86" spans="1:2" s="2" customFormat="1"/>
     <row r="88" spans="1:2" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
-        <v>101</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="5" customFormat="1">
       <c r="A89" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -3204,24 +3376,24 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="6" customFormat="1"/>
     <row r="126" spans="1:2" s="5" customFormat="1">
       <c r="A126" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3229,29 +3401,29 @@
         <v>44</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="6" customFormat="1"/>
     <row r="130" spans="1:2" s="5" customFormat="1">
       <c r="A130" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3259,52 +3431,52 @@
         <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
@@ -3312,7 +3484,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>13</v>
@@ -3320,7 +3492,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>17</v>
@@ -3329,28 +3501,28 @@
     <row r="141" spans="1:2" s="6" customFormat="1"/>
     <row r="142" spans="1:2" s="5" customFormat="1">
       <c r="A142" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
@@ -3358,7 +3530,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>13</v>
@@ -3366,7 +3538,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
@@ -3375,305 +3547,305 @@
     <row r="148" spans="1:2" s="6" customFormat="1"/>
     <row r="149" spans="1:2" s="5" customFormat="1">
       <c r="A149" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="6" customFormat="1"/>
     <row r="153" spans="1:2" s="5" customFormat="1">
       <c r="A153" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="6" customFormat="1"/>
     <row r="157" spans="1:2" s="5" customFormat="1">
       <c r="A157" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="6" customFormat="1"/>
     <row r="161" spans="1:2" s="5" customFormat="1">
       <c r="A161" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="6" customFormat="1"/>
     <row r="165" spans="1:2" s="5" customFormat="1">
       <c r="A165" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
     <row r="175" spans="1:2" s="6" customFormat="1"/>
     <row r="176" spans="1:2" s="7" customFormat="1">
       <c r="A176" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="5" customFormat="1">
       <c r="A177" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="6" customFormat="1"/>
     <row r="187" spans="1:2" s="5" customFormat="1">
       <c r="A187" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3681,53 +3853,53 @@
         <v>11</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="6" customFormat="1"/>
     <row r="200" spans="1:2" s="5" customFormat="1">
       <c r="A200" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3735,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3743,287 +3915,287 @@
         <v>15</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="6" customFormat="1"/>
     <row r="208" spans="1:2" s="5" customFormat="1">
       <c r="A208" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="6" customFormat="1"/>
     <row r="213" spans="1:2" s="5" customFormat="1">
       <c r="A213" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="216" spans="1:2" s="6" customFormat="1"/>
     <row r="217" spans="1:2" s="5" customFormat="1">
       <c r="A217" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="6" customFormat="1"/>
     <row r="221" spans="1:2" s="5" customFormat="1">
       <c r="A221" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="6" customFormat="1"/>
     <row r="225" spans="1:2" s="5" customFormat="1">
       <c r="A225" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
     <row r="230" spans="1:2" s="6" customFormat="1"/>
     <row r="231" spans="1:2" s="7" customFormat="1">
       <c r="A231" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="5" customFormat="1">
       <c r="A232" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="6" customFormat="1"/>
     <row r="248" spans="1:2" s="5" customFormat="1">
       <c r="A248" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4031,23 +4203,23 @@
         <v>7</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4055,28 +4227,28 @@
     <row r="258" spans="1:2" s="6" customFormat="1"/>
     <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="5" customFormat="1">
       <c r="A260" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4084,12 +4256,12 @@
         <v>44</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>49</v>
@@ -4097,90 +4269,90 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4196,105 +4368,105 @@
         <v>11</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="6" customFormat="1"/>
     <row r="280" spans="1:2" s="5" customFormat="1">
       <c r="A280" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="6" customFormat="1"/>
     <row r="284" spans="1:2" s="5" customFormat="1">
       <c r="A284" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="6" customFormat="1"/>
     <row r="288" spans="1:2" s="5" customFormat="1">
       <c r="A288" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4318,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4326,52 +4498,52 @@
     <row r="299" spans="1:2" s="6" customFormat="1"/>
     <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:2" s="5" customFormat="1">
       <c r="A301" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4385,23 +4557,23 @@
     <row r="308" spans="1:2" s="6" customFormat="1"/>
     <row r="309" spans="1:2" s="5" customFormat="1">
       <c r="A309" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4409,68 +4581,68 @@
     <row r="314" spans="1:2" s="6" customFormat="1"/>
     <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="5" customFormat="1">
       <c r="A316" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4478,67 +4650,67 @@
         <v>7</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="327" spans="1:2" s="6" customFormat="1"/>
     <row r="328" spans="1:2" s="5" customFormat="1">
       <c r="A328" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B330" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="331" spans="1:2" s="6" customFormat="1"/>
     <row r="332" spans="1:2" s="5" customFormat="1">
       <c r="A332" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4546,36 +4718,36 @@
     <row r="337" spans="1:2" s="6" customFormat="1"/>
     <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="5" customFormat="1">
       <c r="A339" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
@@ -4583,7 +4755,7 @@
     <row r="345" spans="1:2" s="6" customFormat="1"/>
     <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="6" customFormat="1"/>
@@ -4591,157 +4763,157 @@
     <row r="349" spans="1:2" s="6" customFormat="1"/>
     <row r="350" spans="1:2" s="7" customFormat="1">
       <c r="A350" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4749,106 +4921,106 @@
         <v>12</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="6" customFormat="1"/>
     <row r="373" spans="1:2">
       <c r="A373" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="6" customFormat="1"/>
     <row r="377" spans="1:2">
       <c r="A377" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B377" s="5"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B379" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="6" customFormat="1"/>
     <row r="381" spans="1:2">
       <c r="A381" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B381" s="5"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="6" customFormat="1"/>
     <row r="385" spans="1:2" s="5" customFormat="1">
       <c r="A385" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="6" customFormat="1"/>
@@ -4856,60 +5028,60 @@
     <row r="390" spans="1:2" s="6" customFormat="1"/>
     <row r="391" spans="1:2" s="7" customFormat="1">
       <c r="A391" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="5" customFormat="1">
       <c r="A392" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4917,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4925,61 +5097,61 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="6" customFormat="1"/>
     <row r="402" spans="1:2" s="5" customFormat="1">
       <c r="A402" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4987,7 +5159,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4995,7 +5167,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5003,7 +5175,7 @@
         <v>15</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="6" customFormat="1"/>
@@ -5011,191 +5183,381 @@
     <row r="414" spans="1:2" s="6" customFormat="1"/>
     <row r="415" spans="1:2" s="7" customFormat="1">
       <c r="A415" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="5" customFormat="1">
       <c r="A416" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="426" spans="1:2" s="5" customFormat="1">
       <c r="A426" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="430" spans="1:2" s="6" customFormat="1"/>
     <row r="431" spans="1:2" s="2" customFormat="1"/>
     <row r="432" spans="1:2" s="6" customFormat="1"/>
+    <row r="433" spans="1:2" s="7" customFormat="1">
+      <c r="A433" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" s="6" customFormat="1"/>
+    <row r="435" spans="1:2" s="2" customFormat="1"/>
+    <row r="436" spans="1:2" s="6" customFormat="1"/>
+    <row r="437" spans="1:2" s="7" customFormat="1">
+      <c r="A437" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" s="6" customFormat="1"/>
+    <row r="439" spans="1:2" s="2" customFormat="1"/>
+    <row r="440" spans="1:2" s="6" customFormat="1"/>
+    <row r="441" spans="1:2" s="7" customFormat="1">
+      <c r="A441" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" s="5" customFormat="1">
+      <c r="A442" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" s="6" customFormat="1"/>
+    <row r="457" spans="1:2" s="5" customFormat="1">
+      <c r="A457" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" s="6" customFormat="1"/>
+    <row r="464" spans="1:2" s="5" customFormat="1">
+      <c r="A464" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A432:XFD432"/>
-    <mergeCell ref="A414:XFD414"/>
-    <mergeCell ref="A415:XFD415"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
-    <mergeCell ref="A390:XFD390"/>
-    <mergeCell ref="A384:XFD384"/>
-    <mergeCell ref="A385:XFD385"/>
-    <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A288:XFD288"/>
-    <mergeCell ref="A279:XFD279"/>
-    <mergeCell ref="A280:XFD280"/>
-    <mergeCell ref="A283:XFD283"/>
-    <mergeCell ref="A284:XFD284"/>
-    <mergeCell ref="A287:XFD287"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
+  <mergeCells count="119">
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
     <mergeCell ref="A220:XFD220"/>
     <mergeCell ref="A221:XFD221"/>
     <mergeCell ref="A224:XFD224"/>
@@ -5208,6 +5570,64 @@
     <mergeCell ref="A231:XFD231"/>
     <mergeCell ref="A232:XFD232"/>
     <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A288:XFD288"/>
+    <mergeCell ref="A279:XFD279"/>
+    <mergeCell ref="A280:XFD280"/>
+    <mergeCell ref="A283:XFD283"/>
+    <mergeCell ref="A284:XFD284"/>
+    <mergeCell ref="A287:XFD287"/>
     <mergeCell ref="A339:XFD339"/>
     <mergeCell ref="A345:XFD345"/>
     <mergeCell ref="A315:XFD315"/>
@@ -5221,9 +5641,27 @@
     <mergeCell ref="A337:XFD337"/>
     <mergeCell ref="A338:XFD338"/>
     <mergeCell ref="A331:XFD331"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A390:XFD390"/>
+    <mergeCell ref="A384:XFD384"/>
+    <mergeCell ref="A385:XFD385"/>
+    <mergeCell ref="A380:XFD380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A415:XFD415"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
+++ b/需求文档/数据库中英文对照表/数据库中英文对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="559">
   <si>
     <t>lfTypeId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2065,6 +2065,43 @@
   </si>
   <si>
     <t>品牌认证结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六、合同模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板标识</t>
+  </si>
+  <si>
+    <t>合同模板编号</t>
+  </si>
+  <si>
+    <t>合同模板文本之存储路径</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctId</t>
+  </si>
+  <si>
+    <t>ctCode</t>
+  </si>
+  <si>
+    <t>ctName</t>
+  </si>
+  <si>
+    <t>storagePath</t>
+  </si>
+  <si>
+    <t>1.合同模板 - Contract_Template</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2172,19 +2209,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2481,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J473"/>
+  <dimension ref="A1:J486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471:B473"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A478" sqref="A478:XFD478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2493,24 +2530,24 @@
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -2561,9 +2598,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1"/>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:10" s="8" customFormat="1"/>
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2671,9 +2708,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1"/>
-    <row r="25" spans="1:2" s="5" customFormat="1">
-      <c r="A25" s="5" t="s">
+    <row r="24" spans="1:2" s="7" customFormat="1"/>
+    <row r="25" spans="1:2" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2781,9 +2818,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1"/>
-    <row r="40" spans="1:2" s="5" customFormat="1">
-      <c r="A40" s="5" t="s">
+    <row r="39" spans="1:2" s="7" customFormat="1"/>
+    <row r="40" spans="1:2" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2803,9 +2840,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1"/>
-    <row r="44" spans="1:2" s="5" customFormat="1">
-      <c r="A44" s="5" t="s">
+    <row r="43" spans="1:2" s="7" customFormat="1"/>
+    <row r="44" spans="1:2" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2873,9 +2910,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="6" customFormat="1"/>
-    <row r="54" spans="1:2" s="5" customFormat="1">
-      <c r="A54" s="5" t="s">
+    <row r="53" spans="1:2" s="7" customFormat="1"/>
+    <row r="54" spans="1:2" s="6" customFormat="1">
+      <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2943,9 +2980,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1"/>
-    <row r="64" spans="1:2" s="5" customFormat="1">
-      <c r="A64" s="5" t="s">
+    <row r="63" spans="1:2" s="7" customFormat="1"/>
+    <row r="64" spans="1:2" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3053,9 +3090,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1"/>
-    <row r="79" spans="1:2" s="5" customFormat="1">
-      <c r="A79" s="5" t="s">
+    <row r="78" spans="1:2" s="8" customFormat="1"/>
+    <row r="79" spans="1:2" s="6" customFormat="1">
+      <c r="A79" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3100,13 +3137,13 @@
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1"/>
-    <row r="88" spans="1:2" s="7" customFormat="1">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:2" s="5" customFormat="1">
+      <c r="A88" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" s="6" customFormat="1">
+      <c r="A89" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3390,9 +3427,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="6" customFormat="1"/>
-    <row r="126" spans="1:2" s="5" customFormat="1">
-      <c r="A126" s="5" t="s">
+    <row r="125" spans="1:2" s="7" customFormat="1"/>
+    <row r="126" spans="1:2" s="6" customFormat="1">
+      <c r="A126" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3412,9 +3449,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="6" customFormat="1"/>
-    <row r="130" spans="1:2" s="5" customFormat="1">
-      <c r="A130" s="5" t="s">
+    <row r="129" spans="1:2" s="7" customFormat="1"/>
+    <row r="130" spans="1:2" s="6" customFormat="1">
+      <c r="A130" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3498,9 +3535,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="6" customFormat="1"/>
-    <row r="142" spans="1:2" s="5" customFormat="1">
-      <c r="A142" s="5" t="s">
+    <row r="141" spans="1:2" s="7" customFormat="1"/>
+    <row r="142" spans="1:2" s="6" customFormat="1">
+      <c r="A142" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3544,9 +3581,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="6" customFormat="1"/>
-    <row r="149" spans="1:2" s="5" customFormat="1">
-      <c r="A149" s="5" t="s">
+    <row r="148" spans="1:2" s="7" customFormat="1"/>
+    <row r="149" spans="1:2" s="6" customFormat="1">
+      <c r="A149" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3566,9 +3603,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="6" customFormat="1"/>
-    <row r="153" spans="1:2" s="5" customFormat="1">
-      <c r="A153" s="5" t="s">
+    <row r="152" spans="1:2" s="7" customFormat="1"/>
+    <row r="153" spans="1:2" s="6" customFormat="1">
+      <c r="A153" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3588,9 +3625,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="6" customFormat="1"/>
-    <row r="157" spans="1:2" s="5" customFormat="1">
-      <c r="A157" s="5" t="s">
+    <row r="156" spans="1:2" s="7" customFormat="1"/>
+    <row r="157" spans="1:2" s="6" customFormat="1">
+      <c r="A157" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3610,9 +3647,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="6" customFormat="1"/>
-    <row r="161" spans="1:2" s="5" customFormat="1">
-      <c r="A161" s="5" t="s">
+    <row r="160" spans="1:2" s="7" customFormat="1"/>
+    <row r="161" spans="1:2" s="6" customFormat="1">
+      <c r="A161" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3632,9 +3669,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="6" customFormat="1"/>
-    <row r="165" spans="1:2" s="5" customFormat="1">
-      <c r="A165" s="5" t="s">
+    <row r="164" spans="1:2" s="7" customFormat="1"/>
+    <row r="165" spans="1:2" s="6" customFormat="1">
+      <c r="A165" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3695,14 +3732,14 @@
       </c>
     </row>
     <row r="174" spans="1:2" s="2" customFormat="1"/>
-    <row r="175" spans="1:2" s="6" customFormat="1"/>
-    <row r="176" spans="1:2" s="7" customFormat="1">
-      <c r="A176" s="7" t="s">
+    <row r="175" spans="1:2" s="7" customFormat="1"/>
+    <row r="176" spans="1:2" s="5" customFormat="1">
+      <c r="A176" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="5" customFormat="1">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:2" s="6" customFormat="1">
+      <c r="A177" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3770,9 +3807,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="6" customFormat="1"/>
-    <row r="187" spans="1:2" s="5" customFormat="1">
-      <c r="A187" s="5" t="s">
+    <row r="186" spans="1:2" s="7" customFormat="1"/>
+    <row r="187" spans="1:2" s="6" customFormat="1">
+      <c r="A187" s="6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3864,9 +3901,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1"/>
-    <row r="200" spans="1:2" s="5" customFormat="1">
-      <c r="A200" s="5" t="s">
+    <row r="199" spans="1:2" s="7" customFormat="1"/>
+    <row r="200" spans="1:2" s="6" customFormat="1">
+      <c r="A200" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3918,9 +3955,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1"/>
-    <row r="208" spans="1:2" s="5" customFormat="1">
-      <c r="A208" s="5" t="s">
+    <row r="207" spans="1:2" s="7" customFormat="1"/>
+    <row r="208" spans="1:2" s="6" customFormat="1">
+      <c r="A208" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3948,9 +3985,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="6" customFormat="1"/>
-    <row r="213" spans="1:2" s="5" customFormat="1">
-      <c r="A213" s="5" t="s">
+    <row r="212" spans="1:2" s="7" customFormat="1"/>
+    <row r="213" spans="1:2" s="6" customFormat="1">
+      <c r="A213" s="6" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3970,9 +4007,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="216" spans="1:2" s="6" customFormat="1"/>
-    <row r="217" spans="1:2" s="5" customFormat="1">
-      <c r="A217" s="5" t="s">
+    <row r="216" spans="1:2" s="7" customFormat="1"/>
+    <row r="217" spans="1:2" s="6" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3992,9 +4029,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="220" spans="1:2" s="6" customFormat="1"/>
-    <row r="221" spans="1:2" s="5" customFormat="1">
-      <c r="A221" s="5" t="s">
+    <row r="220" spans="1:2" s="7" customFormat="1"/>
+    <row r="221" spans="1:2" s="6" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4014,9 +4051,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="6" customFormat="1"/>
-    <row r="225" spans="1:2" s="5" customFormat="1">
-      <c r="A225" s="5" t="s">
+    <row r="224" spans="1:2" s="7" customFormat="1"/>
+    <row r="225" spans="1:2" s="6" customFormat="1">
+      <c r="A225" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4037,14 +4074,14 @@
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1"/>
-    <row r="230" spans="1:2" s="6" customFormat="1"/>
-    <row r="231" spans="1:2" s="7" customFormat="1">
-      <c r="A231" s="7" t="s">
+    <row r="230" spans="1:2" s="7" customFormat="1"/>
+    <row r="231" spans="1:2" s="5" customFormat="1">
+      <c r="A231" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="5" customFormat="1">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:2" s="6" customFormat="1">
+      <c r="A232" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4160,9 +4197,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="6" customFormat="1"/>
-    <row r="248" spans="1:2" s="5" customFormat="1">
-      <c r="A248" s="5" t="s">
+    <row r="247" spans="1:2" s="7" customFormat="1"/>
+    <row r="248" spans="1:2" s="6" customFormat="1">
+      <c r="A248" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4224,14 +4261,14 @@
     </row>
     <row r="256" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="257" spans="1:2" s="2" customFormat="1"/>
-    <row r="258" spans="1:2" s="6" customFormat="1"/>
-    <row r="259" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A259" s="7" t="s">
+    <row r="258" spans="1:2" s="7" customFormat="1"/>
+    <row r="259" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A259" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="5" customFormat="1">
-      <c r="A260" s="5" t="s">
+    <row r="260" spans="1:2" s="6" customFormat="1">
+      <c r="A260" s="6" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4379,9 +4416,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="6" customFormat="1"/>
-    <row r="280" spans="1:2" s="5" customFormat="1">
-      <c r="A280" s="5" t="s">
+    <row r="279" spans="1:2" s="7" customFormat="1"/>
+    <row r="280" spans="1:2" s="6" customFormat="1">
+      <c r="A280" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4401,9 +4438,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="6" customFormat="1"/>
-    <row r="284" spans="1:2" s="5" customFormat="1">
-      <c r="A284" s="5" t="s">
+    <row r="283" spans="1:2" s="7" customFormat="1"/>
+    <row r="284" spans="1:2" s="6" customFormat="1">
+      <c r="A284" s="6" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4423,9 +4460,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="6" customFormat="1"/>
-    <row r="288" spans="1:2" s="5" customFormat="1">
-      <c r="A288" s="5" t="s">
+    <row r="287" spans="1:2" s="7" customFormat="1"/>
+    <row r="288" spans="1:2" s="6" customFormat="1">
+      <c r="A288" s="6" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4495,14 +4532,14 @@
     </row>
     <row r="297" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="298" spans="1:2" s="2" customFormat="1"/>
-    <row r="299" spans="1:2" s="6" customFormat="1"/>
-    <row r="300" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A300" s="7" t="s">
+    <row r="299" spans="1:2" s="7" customFormat="1"/>
+    <row r="300" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A300" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="5" customFormat="1">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:2" s="6" customFormat="1">
+      <c r="A301" s="6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4554,9 +4591,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="6" customFormat="1"/>
-    <row r="309" spans="1:2" s="5" customFormat="1">
-      <c r="A309" s="5" t="s">
+    <row r="308" spans="1:2" s="7" customFormat="1"/>
+    <row r="309" spans="1:2" s="6" customFormat="1">
+      <c r="A309" s="6" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4578,14 +4615,14 @@
     </row>
     <row r="312" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="313" spans="1:2" s="2" customFormat="1"/>
-    <row r="314" spans="1:2" s="6" customFormat="1"/>
-    <row r="315" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A315" s="7" t="s">
+    <row r="314" spans="1:2" s="7" customFormat="1"/>
+    <row r="315" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A315" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="5" customFormat="1">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:2" s="6" customFormat="1">
+      <c r="A316" s="6" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4669,9 +4706,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="6" customFormat="1"/>
-    <row r="328" spans="1:2" s="5" customFormat="1">
-      <c r="A328" s="5" t="s">
+    <row r="327" spans="1:2" s="7" customFormat="1"/>
+    <row r="328" spans="1:2" s="6" customFormat="1">
+      <c r="A328" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4691,9 +4728,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="6" customFormat="1"/>
-    <row r="332" spans="1:2" s="5" customFormat="1">
-      <c r="A332" s="5" t="s">
+    <row r="331" spans="1:2" s="7" customFormat="1"/>
+    <row r="332" spans="1:2" s="6" customFormat="1">
+      <c r="A332" s="6" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4715,14 +4752,14 @@
     </row>
     <row r="335" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="336" spans="1:2" s="2" customFormat="1"/>
-    <row r="337" spans="1:2" s="6" customFormat="1"/>
-    <row r="338" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A338" s="7" t="s">
+    <row r="337" spans="1:2" s="7" customFormat="1"/>
+    <row r="338" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A338" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="5" customFormat="1">
-      <c r="A339" s="5" t="s">
+    <row r="339" spans="1:2" s="6" customFormat="1">
+      <c r="A339" s="6" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4752,25 +4789,25 @@
     </row>
     <row r="343" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="344" spans="1:2" s="2" customFormat="1"/>
-    <row r="345" spans="1:2" s="6" customFormat="1"/>
-    <row r="346" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A346" s="7" t="s">
+    <row r="345" spans="1:2" s="7" customFormat="1"/>
+    <row r="346" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A346" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="6" customFormat="1"/>
+    <row r="347" spans="1:2" s="7" customFormat="1"/>
     <row r="348" spans="1:2" s="2" customFormat="1"/>
-    <row r="349" spans="1:2" s="6" customFormat="1"/>
-    <row r="350" spans="1:2" s="7" customFormat="1">
-      <c r="A350" s="7" t="s">
+    <row r="349" spans="1:2" s="7" customFormat="1"/>
+    <row r="350" spans="1:2" s="5" customFormat="1">
+      <c r="A350" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B351" s="5"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="3" t="s">
@@ -4932,12 +4969,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="6" customFormat="1"/>
+    <row r="372" spans="1:2" s="7" customFormat="1"/>
     <row r="373" spans="1:2">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B373" s="5"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="4" t="s">
@@ -4955,12 +4992,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="6" customFormat="1"/>
+    <row r="376" spans="1:2" s="7" customFormat="1"/>
     <row r="377" spans="1:2">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B377" s="5"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="4" t="s">
@@ -4978,12 +5015,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="6" customFormat="1"/>
+    <row r="380" spans="1:2" s="7" customFormat="1"/>
     <row r="381" spans="1:2">
-      <c r="A381" s="5" t="s">
+      <c r="A381" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B381" s="5"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="4" t="s">
@@ -5001,9 +5038,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="6" customFormat="1"/>
-    <row r="385" spans="1:2" s="5" customFormat="1">
-      <c r="A385" s="5" t="s">
+    <row r="384" spans="1:2" s="7" customFormat="1"/>
+    <row r="385" spans="1:2" s="6" customFormat="1">
+      <c r="A385" s="6" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5023,16 +5060,16 @@
         <v>437</v>
       </c>
     </row>
-    <row r="388" spans="1:2" s="6" customFormat="1"/>
+    <row r="388" spans="1:2" s="7" customFormat="1"/>
     <row r="389" spans="1:2" s="2" customFormat="1"/>
-    <row r="390" spans="1:2" s="6" customFormat="1"/>
-    <row r="391" spans="1:2" s="7" customFormat="1">
-      <c r="A391" s="7" t="s">
+    <row r="390" spans="1:2" s="7" customFormat="1"/>
+    <row r="391" spans="1:2" s="5" customFormat="1">
+      <c r="A391" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="392" spans="1:2" s="5" customFormat="1">
-      <c r="A392" s="5" t="s">
+    <row r="392" spans="1:2" s="6" customFormat="1">
+      <c r="A392" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5100,9 +5137,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="401" spans="1:2" s="6" customFormat="1"/>
-    <row r="402" spans="1:2" s="5" customFormat="1">
-      <c r="A402" s="5" t="s">
+    <row r="401" spans="1:2" s="7" customFormat="1"/>
+    <row r="402" spans="1:2" s="6" customFormat="1">
+      <c r="A402" s="6" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5178,16 +5215,16 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:2" s="6" customFormat="1"/>
+    <row r="412" spans="1:2" s="7" customFormat="1"/>
     <row r="413" spans="1:2" s="2" customFormat="1"/>
-    <row r="414" spans="1:2" s="6" customFormat="1"/>
-    <row r="415" spans="1:2" s="7" customFormat="1">
-      <c r="A415" s="7" t="s">
+    <row r="414" spans="1:2" s="7" customFormat="1"/>
+    <row r="415" spans="1:2" s="5" customFormat="1">
+      <c r="A415" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="5" customFormat="1">
-      <c r="A416" s="5" t="s">
+    <row r="416" spans="1:2" s="6" customFormat="1">
+      <c r="A416" s="6" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5255,8 +5292,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="426" spans="1:2" s="5" customFormat="1">
-      <c r="A426" s="5" t="s">
+    <row r="426" spans="1:2" s="6" customFormat="1">
+      <c r="A426" s="6" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5284,32 +5321,32 @@
         <v>496</v>
       </c>
     </row>
-    <row r="430" spans="1:2" s="6" customFormat="1"/>
+    <row r="430" spans="1:2" s="7" customFormat="1"/>
     <row r="431" spans="1:2" s="2" customFormat="1"/>
-    <row r="432" spans="1:2" s="6" customFormat="1"/>
-    <row r="433" spans="1:2" s="7" customFormat="1">
-      <c r="A433" s="7" t="s">
+    <row r="432" spans="1:2" s="7" customFormat="1"/>
+    <row r="433" spans="1:2" s="5" customFormat="1">
+      <c r="A433" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="434" spans="1:2" s="6" customFormat="1"/>
+    <row r="434" spans="1:2" s="7" customFormat="1"/>
     <row r="435" spans="1:2" s="2" customFormat="1"/>
-    <row r="436" spans="1:2" s="6" customFormat="1"/>
-    <row r="437" spans="1:2" s="7" customFormat="1">
-      <c r="A437" s="7" t="s">
+    <row r="436" spans="1:2" s="7" customFormat="1"/>
+    <row r="437" spans="1:2" s="5" customFormat="1">
+      <c r="A437" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="438" spans="1:2" s="6" customFormat="1"/>
+    <row r="438" spans="1:2" s="7" customFormat="1"/>
     <row r="439" spans="1:2" s="2" customFormat="1"/>
-    <row r="440" spans="1:2" s="6" customFormat="1"/>
-    <row r="441" spans="1:2" s="7" customFormat="1">
-      <c r="A441" s="7" t="s">
+    <row r="440" spans="1:2" s="7" customFormat="1"/>
+    <row r="441" spans="1:2" s="5" customFormat="1">
+      <c r="A441" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="442" spans="1:2" s="5" customFormat="1">
-      <c r="A442" s="5" t="s">
+    <row r="442" spans="1:2" s="6" customFormat="1">
+      <c r="A442" s="6" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5417,9 +5454,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="456" spans="1:2" s="6" customFormat="1"/>
-    <row r="457" spans="1:2" s="5" customFormat="1">
-      <c r="A457" s="5" t="s">
+    <row r="456" spans="1:2" s="7" customFormat="1"/>
+    <row r="457" spans="1:2" s="6" customFormat="1">
+      <c r="A457" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5463,9 +5500,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="6" customFormat="1"/>
-    <row r="464" spans="1:2" s="5" customFormat="1">
-      <c r="A464" s="5" t="s">
+    <row r="463" spans="1:2" s="7" customFormat="1"/>
+    <row r="464" spans="1:2" s="6" customFormat="1">
+      <c r="A464" s="6" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5541,87 +5578,106 @@
         <v>17</v>
       </c>
     </row>
+    <row r="474" spans="1:2" s="7" customFormat="1"/>
+    <row r="475" spans="1:2" s="2" customFormat="1"/>
+    <row r="476" spans="1:2" s="7" customFormat="1"/>
+    <row r="477" spans="1:2" s="5" customFormat="1">
+      <c r="A477" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" s="6" customFormat="1">
+      <c r="A478" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="A441:XFD441"/>
-    <mergeCell ref="A442:XFD442"/>
-    <mergeCell ref="A456:XFD456"/>
-    <mergeCell ref="A457:XFD457"/>
-    <mergeCell ref="A463:XFD463"/>
-    <mergeCell ref="A464:XFD464"/>
-    <mergeCell ref="A332:XFD332"/>
-    <mergeCell ref="A327:XFD327"/>
-    <mergeCell ref="A328:XFD328"/>
-    <mergeCell ref="A433:XFD433"/>
-    <mergeCell ref="A434:XFD434"/>
-    <mergeCell ref="A436:XFD436"/>
-    <mergeCell ref="A437:XFD437"/>
-    <mergeCell ref="A438:XFD438"/>
-    <mergeCell ref="A440:XFD440"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="A221:XFD221"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="A260:XFD260"/>
-    <mergeCell ref="A248:XFD248"/>
-    <mergeCell ref="A258:XFD258"/>
-    <mergeCell ref="A259:XFD259"/>
-    <mergeCell ref="A225:XFD225"/>
-    <mergeCell ref="A230:XFD230"/>
-    <mergeCell ref="A231:XFD231"/>
-    <mergeCell ref="A232:XFD232"/>
-    <mergeCell ref="A247:XFD247"/>
-    <mergeCell ref="A187:XFD187"/>
-    <mergeCell ref="A199:XFD199"/>
-    <mergeCell ref="A200:XFD200"/>
-    <mergeCell ref="A207:XFD207"/>
-    <mergeCell ref="A208:XFD208"/>
-    <mergeCell ref="A213:XFD213"/>
-    <mergeCell ref="A212:XFD212"/>
-    <mergeCell ref="A216:XFD216"/>
-    <mergeCell ref="A217:XFD217"/>
-    <mergeCell ref="A157:XFD157"/>
-    <mergeCell ref="A160:XFD160"/>
-    <mergeCell ref="A161:XFD161"/>
-    <mergeCell ref="A164:XFD164"/>
-    <mergeCell ref="A165:XFD165"/>
-    <mergeCell ref="A175:XFD175"/>
-    <mergeCell ref="A176:XFD176"/>
-    <mergeCell ref="A177:XFD177"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A130:XFD130"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A142:XFD142"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A149:XFD149"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A153:XFD153"/>
-    <mergeCell ref="A156:XFD156"/>
-    <mergeCell ref="A126:XFD126"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A63:XFD63"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A44:XFD44"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A54:XFD54"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:XFD10"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A88:XFD88"/>
-    <mergeCell ref="A89:XFD89"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A346:XFD346"/>
-    <mergeCell ref="A347:XFD347"/>
-    <mergeCell ref="A349:XFD349"/>
-    <mergeCell ref="A350:XFD350"/>
-    <mergeCell ref="A351:B351"/>
+  <mergeCells count="123">
+    <mergeCell ref="A476:XFD476"/>
+    <mergeCell ref="A477:XFD477"/>
+    <mergeCell ref="A478:XFD478"/>
+    <mergeCell ref="A432:XFD432"/>
+    <mergeCell ref="A414:XFD414"/>
+    <mergeCell ref="A415:XFD415"/>
+    <mergeCell ref="A391:XFD391"/>
+    <mergeCell ref="A392:XFD392"/>
+    <mergeCell ref="A401:XFD401"/>
+    <mergeCell ref="A402:XFD402"/>
+    <mergeCell ref="A412:XFD412"/>
+    <mergeCell ref="A474:XFD474"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A388:XFD388"/>
+    <mergeCell ref="A372:XFD372"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A376:XFD376"/>
+    <mergeCell ref="A416:XFD416"/>
+    <mergeCell ref="A426:XFD426"/>
+    <mergeCell ref="A430:XFD430"/>
     <mergeCell ref="A288:XFD288"/>
     <mergeCell ref="A279:XFD279"/>
     <mergeCell ref="A280:XFD280"/>
@@ -5641,27 +5697,89 @@
     <mergeCell ref="A337:XFD337"/>
     <mergeCell ref="A338:XFD338"/>
     <mergeCell ref="A331:XFD331"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A88:XFD88"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A126:XFD126"/>
+    <mergeCell ref="A64:XFD64"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A79:XFD79"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A53:XFD53"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A142:XFD142"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A149:XFD149"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A153:XFD153"/>
+    <mergeCell ref="A156:XFD156"/>
+    <mergeCell ref="A157:XFD157"/>
+    <mergeCell ref="A160:XFD160"/>
+    <mergeCell ref="A161:XFD161"/>
+    <mergeCell ref="A164:XFD164"/>
+    <mergeCell ref="A165:XFD165"/>
+    <mergeCell ref="A175:XFD175"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:XFD177"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="A187:XFD187"/>
+    <mergeCell ref="A199:XFD199"/>
+    <mergeCell ref="A200:XFD200"/>
+    <mergeCell ref="A207:XFD207"/>
+    <mergeCell ref="A208:XFD208"/>
+    <mergeCell ref="A213:XFD213"/>
+    <mergeCell ref="A212:XFD212"/>
+    <mergeCell ref="A216:XFD216"/>
+    <mergeCell ref="A217:XFD217"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="A221:XFD221"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="A260:XFD260"/>
+    <mergeCell ref="A248:XFD248"/>
+    <mergeCell ref="A258:XFD258"/>
+    <mergeCell ref="A259:XFD259"/>
+    <mergeCell ref="A225:XFD225"/>
+    <mergeCell ref="A230:XFD230"/>
+    <mergeCell ref="A231:XFD231"/>
+    <mergeCell ref="A232:XFD232"/>
+    <mergeCell ref="A247:XFD247"/>
+    <mergeCell ref="A441:XFD441"/>
+    <mergeCell ref="A442:XFD442"/>
+    <mergeCell ref="A456:XFD456"/>
+    <mergeCell ref="A457:XFD457"/>
+    <mergeCell ref="A463:XFD463"/>
+    <mergeCell ref="A464:XFD464"/>
+    <mergeCell ref="A332:XFD332"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:XFD328"/>
+    <mergeCell ref="A433:XFD433"/>
+    <mergeCell ref="A434:XFD434"/>
+    <mergeCell ref="A436:XFD436"/>
+    <mergeCell ref="A437:XFD437"/>
+    <mergeCell ref="A438:XFD438"/>
+    <mergeCell ref="A440:XFD440"/>
+    <mergeCell ref="A346:XFD346"/>
+    <mergeCell ref="A347:XFD347"/>
+    <mergeCell ref="A349:XFD349"/>
+    <mergeCell ref="A350:XFD350"/>
+    <mergeCell ref="A351:B351"/>
     <mergeCell ref="A390:XFD390"/>
     <mergeCell ref="A384:XFD384"/>
     <mergeCell ref="A385:XFD385"/>
     <mergeCell ref="A380:XFD380"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A388:XFD388"/>
-    <mergeCell ref="A372:XFD372"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A376:XFD376"/>
-    <mergeCell ref="A416:XFD416"/>
-    <mergeCell ref="A426:XFD426"/>
-    <mergeCell ref="A430:XFD430"/>
-    <mergeCell ref="A432:XFD432"/>
-    <mergeCell ref="A414:XFD414"/>
-    <mergeCell ref="A415:XFD415"/>
-    <mergeCell ref="A391:XFD391"/>
-    <mergeCell ref="A392:XFD392"/>
-    <mergeCell ref="A401:XFD401"/>
-    <mergeCell ref="A402:XFD402"/>
-    <mergeCell ref="A412:XFD412"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
